--- a/GS03FLMB/Omaha_Cal_Info_GS03FLMB_00001.xlsx
+++ b/GS03FLMB/Omaha_Cal_Info_GS03FLMB_00001.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gauls\Documents\Project Info\WHOI\Marine Integration - OOI\OOInet Migration\Integration\Cal and Ingest Sheets\Sheets from -test 2015-08-19\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="12720" windowHeight="12405"/>
+    <workbookView xWindow="-12" yWindow="-12" windowWidth="12720" windowHeight="12408" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -17,7 +22,7 @@
     <definedName name="_FilterDatabase_0">[1]Moorings!#REF!</definedName>
     <definedName name="_FilterDatabase_0_0_0">[1]Moorings!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -165,9 +170,6 @@
     <t>CC_depolarization_ratio</t>
   </si>
   <si>
-    <t>GS03FLMB-FM001</t>
-  </si>
-  <si>
     <t>GS03FLMB-00001</t>
   </si>
   <si>
@@ -244,6 +246,9 @@
   </si>
   <si>
     <t>The serial number used here is bogus, pending identification of the real serial number.</t>
+  </si>
+  <si>
+    <t>GS03FLMB</t>
   </si>
 </sst>
 </file>
@@ -420,7 +425,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -448,6 +453,12 @@
       <patternFill patternType="solid">
         <fgColor indexed="55"/>
         <bgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -648,7 +659,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -732,6 +743,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -875,6 +889,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -939,7 +956,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -974,7 +991,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1185,27 +1202,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="17" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="17" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" style="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.5703125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="4" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" style="4" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="4"/>
+    <col min="7" max="7" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.5546875" style="4" customWidth="1"/>
+    <col min="12" max="12" width="13.44140625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="12.5546875" style="4" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="8" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1240,12 +1259,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>47</v>
+    <row r="2" spans="1:13" s="15" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="29" t="s">
+        <v>73</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
@@ -1258,16 +1277,16 @@
       </c>
       <c r="F2" s="13"/>
       <c r="G2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="I2" s="3">
         <v>4865</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="18">
@@ -1279,12 +1298,12 @@
         <v>-88.934600000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D3" s="25"/>
       <c r="E3" s="26"/>
       <c r="F3" s="25"/>
     </row>
-    <row r="4" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:13" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1295,23 +1314,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="G108" sqref="G108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="2"/>
+    <col min="6" max="6" width="27.109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -1334,19 +1353,19 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="21"/>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
       <c r="D2" s="21"/>
       <c r="E2" s="21"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" s="21">
         <v>1</v>
@@ -1367,12 +1386,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" s="21">
         <v>1</v>
@@ -1390,12 +1409,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" s="21">
         <v>1</v>
@@ -1410,12 +1429,12 @@
         <v>1.21E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" s="21">
         <v>1</v>
@@ -1430,12 +1449,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7" s="21">
         <v>1</v>
@@ -1450,12 +1469,12 @@
         <v>9.0899999999999995E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" s="21">
         <v>1</v>
@@ -1470,12 +1489,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" s="21">
         <v>1</v>
@@ -1493,12 +1512,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C10" s="21">
         <v>1</v>
@@ -1516,12 +1535,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C11" s="21">
         <v>1</v>
@@ -1539,12 +1558,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" s="21">
         <v>1</v>
@@ -1562,25 +1581,25 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="21"/>
       <c r="B13" s="22"/>
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>
       <c r="E13" s="21"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" s="21">
         <v>1</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E14" s="21" t="s">
         <v>18</v>
@@ -1595,18 +1614,18 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" s="21">
         <v>1</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E15" s="21" t="s">
         <v>19</v>
@@ -1615,18 +1634,18 @@
         <v>2229</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C16" s="21">
         <v>1</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>20</v>
@@ -1635,18 +1654,18 @@
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C17" s="21">
         <v>1</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E17" s="21" t="s">
         <v>21</v>
@@ -1655,18 +1674,18 @@
         <v>38502</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C18" s="21">
         <v>1</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E18" s="21" t="s">
         <v>22</v>
@@ -1675,18 +1694,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" s="21">
         <v>1</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E19" s="21" t="s">
         <v>23</v>
@@ -1695,18 +1714,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C20" s="21">
         <v>1</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E20" s="21" t="s">
         <v>39</v>
@@ -1718,19 +1737,19 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="21"/>
       <c r="B21" s="22"/>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C22" s="21">
         <v>1</v>
@@ -1751,12 +1770,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C23" s="21">
         <v>1</v>
@@ -1771,15 +1790,15 @@
         <v>-88.934600000000003</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C24" s="21">
         <v>1</v>
@@ -1791,22 +1810,22 @@
         <v>15</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="21"/>
       <c r="B25" s="22"/>
       <c r="C25" s="21"/>
       <c r="D25" s="21"/>
       <c r="E25" s="21"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C26" s="21">
         <v>1</v>
@@ -1827,12 +1846,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C27" s="21">
         <v>1</v>
@@ -1847,12 +1866,12 @@
         <v>-88.934600000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C28" s="21">
         <v>1</v>
@@ -1867,12 +1886,12 @@
         <v>-54.080300000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C29" s="21">
         <v>1</v>
@@ -1887,12 +1906,12 @@
         <v>-88.934600000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C30" s="21">
         <v>1</v>
@@ -1907,12 +1926,12 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C31" s="21">
         <v>1</v>
@@ -1927,12 +1946,12 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C32" s="21">
         <v>1</v>
@@ -1947,12 +1966,12 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C33" s="21">
         <v>1</v>
@@ -1967,12 +1986,12 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C34" s="21">
         <v>1</v>
@@ -1987,19 +2006,19 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="21"/>
       <c r="B35" s="22"/>
       <c r="C35" s="21"/>
       <c r="D35" s="21"/>
       <c r="E35" s="21"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C36" s="21">
         <v>1</v>
@@ -2020,12 +2039,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C37" s="21">
         <v>1</v>
@@ -2040,12 +2059,12 @@
         <v>-54.080300000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C38" s="21">
         <v>1</v>
@@ -2060,12 +2079,12 @@
         <v>-88.934600000000003</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C39" s="21">
         <v>1</v>
@@ -2080,19 +2099,19 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="21"/>
       <c r="B40" s="22"/>
       <c r="C40" s="21"/>
       <c r="D40" s="21"/>
       <c r="E40" s="21"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C41" s="21">
         <v>1</v>
@@ -2113,12 +2132,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C42" s="21">
         <v>1</v>
@@ -2133,12 +2152,12 @@
         <v>-54.080300000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C43" s="21">
         <v>1</v>
@@ -2153,12 +2172,12 @@
         <v>-88.934600000000003</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C44" s="21">
         <v>1</v>
@@ -2173,19 +2192,19 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="21"/>
       <c r="B45" s="22"/>
       <c r="C45" s="21"/>
       <c r="D45" s="21"/>
       <c r="E45" s="21"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C46" s="21">
         <v>1</v>
@@ -2206,12 +2225,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C47" s="21">
         <v>1</v>
@@ -2226,12 +2245,12 @@
         <v>-54.080300000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C48" s="21">
         <v>1</v>
@@ -2246,12 +2265,12 @@
         <v>-88.934600000000003</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C49" s="21">
         <v>1</v>
@@ -2266,19 +2285,19 @@
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="21"/>
       <c r="B50" s="22"/>
       <c r="C50" s="21"/>
       <c r="D50" s="21"/>
       <c r="E50" s="21"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B51" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C51" s="21">
         <v>1</v>
@@ -2299,12 +2318,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B52" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C52" s="21">
         <v>1</v>
@@ -2319,12 +2338,12 @@
         <v>-54.080300000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C53" s="21">
         <v>1</v>
@@ -2339,12 +2358,12 @@
         <v>-88.934600000000003</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B54" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C54" s="21">
         <v>1</v>
@@ -2359,19 +2378,19 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="21"/>
       <c r="B55" s="22"/>
       <c r="C55" s="21"/>
       <c r="D55" s="21"/>
       <c r="E55" s="21"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C56" s="21">
         <v>1</v>
@@ -2392,12 +2411,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B57" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C57" s="21">
         <v>1</v>
@@ -2412,12 +2431,12 @@
         <v>-54.080300000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C58" s="21">
         <v>1</v>
@@ -2432,12 +2451,12 @@
         <v>-88.934600000000003</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C59" s="21">
         <v>1</v>
@@ -2452,19 +2471,19 @@
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="21"/>
       <c r="B60" s="22"/>
       <c r="C60" s="21"/>
       <c r="D60" s="21"/>
       <c r="E60" s="21"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B61" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C61" s="21">
         <v>1</v>
@@ -2485,12 +2504,12 @@
         <v>180</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B62" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C62" s="21">
         <v>1</v>
@@ -2505,12 +2524,12 @@
         <v>-54.080300000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B63" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C63" s="21">
         <v>1</v>
@@ -2525,12 +2544,12 @@
         <v>-88.934600000000003</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B64" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C64" s="21">
         <v>1</v>
@@ -2545,19 +2564,19 @@
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="21"/>
       <c r="B65" s="22"/>
       <c r="C65" s="21"/>
       <c r="D65" s="21"/>
       <c r="E65" s="21"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B66" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C66" s="21">
         <v>1</v>
@@ -2578,12 +2597,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B67" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C67" s="21">
         <v>1</v>
@@ -2598,12 +2617,12 @@
         <v>-54.080300000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B68" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C68" s="21">
         <v>1</v>
@@ -2618,12 +2637,12 @@
         <v>-88.934600000000003</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B69" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C69" s="21">
         <v>1</v>
@@ -2638,19 +2657,19 @@
         <v>52</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="21"/>
       <c r="B70" s="22"/>
       <c r="C70" s="21"/>
       <c r="D70" s="21"/>
       <c r="E70" s="21"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B71" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C71" s="21">
         <v>1</v>
@@ -2671,12 +2690,12 @@
         <v>350</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B72" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C72" s="21">
         <v>1</v>
@@ -2691,12 +2710,12 @@
         <v>-54.080300000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B73" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C73" s="21">
         <v>1</v>
@@ -2711,12 +2730,12 @@
         <v>-88.934600000000003</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B74" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C74" s="21">
         <v>1</v>
@@ -2731,19 +2750,19 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="21"/>
       <c r="B75" s="22"/>
       <c r="C75" s="21"/>
       <c r="D75" s="21"/>
       <c r="E75" s="21"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B76" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C76" s="21">
         <v>1</v>
@@ -2764,12 +2783,12 @@
         <v>501</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B77" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C77" s="21">
         <v>1</v>
@@ -2784,12 +2803,12 @@
         <v>-54.080300000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B78" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C78" s="21">
         <v>1</v>
@@ -2804,12 +2823,12 @@
         <v>-88.934600000000003</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B79" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C79" s="21">
         <v>1</v>
@@ -2824,19 +2843,19 @@
         <v>56</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="21"/>
       <c r="B80" s="22"/>
       <c r="C80" s="21"/>
       <c r="D80" s="21"/>
       <c r="E80" s="21"/>
     </row>
-    <row r="81" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B81" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C81" s="24">
         <v>1</v>
@@ -2857,12 +2876,12 @@
         <v>748</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B82" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C82" s="21">
         <v>1</v>
@@ -2877,12 +2896,12 @@
         <v>-54.080300000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B83" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C83" s="21">
         <v>1</v>
@@ -2897,12 +2916,12 @@
         <v>-88.934600000000003</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B84" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C84" s="21">
         <v>1</v>
@@ -2917,19 +2936,19 @@
         <v>26</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="21"/>
       <c r="B85" s="22"/>
       <c r="C85" s="21"/>
       <c r="D85" s="21"/>
       <c r="E85" s="21"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B86" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C86" s="21">
         <v>1</v>
@@ -2950,12 +2969,12 @@
         <v>999</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B87" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C87" s="21">
         <v>1</v>
@@ -2970,12 +2989,12 @@
         <v>-54.080300000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B88" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C88" s="21">
         <v>1</v>
@@ -2990,12 +3009,12 @@
         <v>-88.934600000000003</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B89" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C89" s="21">
         <v>1</v>
@@ -3010,19 +3029,19 @@
         <v>29</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="21"/>
       <c r="B90" s="22"/>
       <c r="C90" s="21"/>
       <c r="D90" s="21"/>
       <c r="E90" s="21"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B91" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C91" s="21">
         <v>1</v>
@@ -3043,12 +3062,12 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B92" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C92" s="21">
         <v>1</v>
@@ -3063,12 +3082,12 @@
         <v>-54.080300000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B93" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C93" s="21">
         <v>1</v>
@@ -3083,12 +3102,12 @@
         <v>-88.934600000000003</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B94" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C94" s="21">
         <v>1</v>
@@ -3103,67 +3122,67 @@
         <v>67</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="21"/>
       <c r="B95" s="22"/>
       <c r="C95" s="21"/>
       <c r="D95" s="21"/>
       <c r="E95" s="21"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B96" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C96" s="21">
         <v>1</v>
       </c>
       <c r="D96" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E96" s="21"/>
       <c r="G96" s="27" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="21"/>
       <c r="B97" s="22"/>
       <c r="C97" s="21"/>
       <c r="D97" s="21"/>
       <c r="E97" s="21"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="21"/>
       <c r="B98" s="21"/>
       <c r="C98" s="21"/>
       <c r="D98" s="21"/>
       <c r="E98" s="21"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="21"/>
       <c r="B99" s="21"/>
       <c r="C99" s="21"/>
       <c r="D99" s="21"/>
       <c r="E99" s="21"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="21"/>
       <c r="B100" s="21"/>
       <c r="C100" s="21"/>
       <c r="D100" s="21"/>
       <c r="E100" s="21"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="21"/>
       <c r="B101" s="21"/>
       <c r="C101" s="21"/>
       <c r="D101" s="21"/>
       <c r="E101" s="21"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="21"/>
       <c r="B102" s="21"/>
       <c r="C102" s="21"/>

--- a/GS03FLMB/Omaha_Cal_Info_GS03FLMB_00001.xlsx
+++ b/GS03FLMB/Omaha_Cal_Info_GS03FLMB_00001.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gauls\Documents\Project Info\WHOI\Marine Integration - OOI\OOInet Migration\Integration\Cal and Ingest Sheets\Sheets from -test 2015-08-19\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="-12" windowWidth="12720" windowHeight="12408" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="12720" windowHeight="12405" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -22,7 +17,7 @@
     <definedName name="_FilterDatabase_0">[1]Moorings!#REF!</definedName>
     <definedName name="_FilterDatabase_0_0_0">[1]Moorings!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -956,7 +951,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -991,7 +986,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1206,22 +1201,22 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="17" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" style="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="11.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.5546875" style="4" customWidth="1"/>
-    <col min="12" max="12" width="13.44140625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="12.5546875" style="4" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="4"/>
+    <col min="7" max="7" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="4" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" style="4" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="8" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
@@ -1259,7 +1254,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="15" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>73</v>
       </c>
@@ -1298,12 +1293,12 @@
         <v>-88.934600000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="15" customFormat="1" ht="13.9" x14ac:dyDescent="0.3">
       <c r="D3" s="25"/>
       <c r="E3" s="26"/>
       <c r="F3" s="25"/>
     </row>
-    <row r="4" spans="1:13" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:13" customFormat="1" ht="14.45" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1314,23 +1309,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G108" sqref="G108"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="2"/>
+    <col min="6" max="6" width="27.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="11" customFormat="1" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -1353,14 +1348,14 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A2" s="21"/>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
       <c r="D2" s="21"/>
       <c r="E2" s="21"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
         <v>48</v>
       </c>
@@ -1386,7 +1381,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>48</v>
       </c>
@@ -1409,7 +1404,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
         <v>48</v>
       </c>
@@ -1429,7 +1424,7 @@
         <v>1.21E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
         <v>48</v>
       </c>
@@ -1449,7 +1444,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>48</v>
       </c>
@@ -1469,7 +1464,7 @@
         <v>9.0899999999999995E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
         <v>48</v>
       </c>
@@ -1489,7 +1484,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
         <v>48</v>
       </c>
@@ -1506,13 +1501,13 @@
         <v>43</v>
       </c>
       <c r="F9" s="2">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
         <v>48</v>
       </c>
@@ -1535,7 +1530,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
         <v>48</v>
       </c>
@@ -1552,13 +1547,13 @@
         <v>45</v>
       </c>
       <c r="F11" s="2">
-        <v>1.08</v>
+        <v>1.0760000000000001</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A12" s="21" t="s">
         <v>48</v>
       </c>
@@ -1581,14 +1576,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A13" s="21"/>
       <c r="B13" s="22"/>
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>
       <c r="E13" s="21"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
         <v>49</v>
       </c>
@@ -1614,7 +1609,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
         <v>49</v>
       </c>
@@ -1634,7 +1629,7 @@
         <v>2229</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A16" s="21" t="s">
         <v>49</v>
       </c>
@@ -1654,7 +1649,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="s">
         <v>49</v>
       </c>
@@ -1674,7 +1669,7 @@
         <v>38502</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A18" s="21" t="s">
         <v>49</v>
       </c>
@@ -1694,7 +1689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="s">
         <v>49</v>
       </c>
@@ -1714,7 +1709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
         <v>49</v>
       </c>
@@ -1737,14 +1732,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A21" s="21"/>
       <c r="B21" s="22"/>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A22" s="21" t="s">
         <v>50</v>
       </c>
@@ -1770,7 +1765,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A23" s="21" t="s">
         <v>50</v>
       </c>
@@ -1793,7 +1788,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A24" s="21" t="s">
         <v>50</v>
       </c>
@@ -1813,14 +1808,14 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A25" s="21"/>
       <c r="B25" s="22"/>
       <c r="C25" s="21"/>
       <c r="D25" s="21"/>
       <c r="E25" s="21"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A26" s="21" t="s">
         <v>52</v>
       </c>
@@ -1846,7 +1841,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A27" s="21" t="s">
         <v>52</v>
       </c>
@@ -1866,7 +1861,7 @@
         <v>-88.934600000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A28" s="21" t="s">
         <v>52</v>
       </c>
@@ -1886,7 +1881,7 @@
         <v>-54.080300000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A29" s="21" t="s">
         <v>52</v>
       </c>
@@ -1906,7 +1901,7 @@
         <v>-88.934600000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A30" s="21" t="s">
         <v>52</v>
       </c>
@@ -1926,7 +1921,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A31" s="21" t="s">
         <v>52</v>
       </c>
@@ -1946,7 +1941,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A32" s="21" t="s">
         <v>52</v>
       </c>
@@ -1966,7 +1961,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A33" s="21" t="s">
         <v>52</v>
       </c>
@@ -1986,7 +1981,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A34" s="21" t="s">
         <v>52</v>
       </c>
@@ -2006,14 +2001,14 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A35" s="21"/>
       <c r="B35" s="22"/>
       <c r="C35" s="21"/>
       <c r="D35" s="21"/>
       <c r="E35" s="21"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A36" s="21" t="s">
         <v>53</v>
       </c>
@@ -2030,7 +2025,7 @@
         <v>5</v>
       </c>
       <c r="F36" s="2">
-        <v>1000</v>
+        <v>1450</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>14</v>
@@ -2039,7 +2034,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A37" s="21" t="s">
         <v>53</v>
       </c>
@@ -2059,7 +2054,7 @@
         <v>-54.080300000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A38" s="21" t="s">
         <v>53</v>
       </c>
@@ -2079,7 +2074,7 @@
         <v>-88.934600000000003</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A39" s="21" t="s">
         <v>53</v>
       </c>
@@ -2099,14 +2094,14 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A40" s="21"/>
       <c r="B40" s="22"/>
       <c r="C40" s="21"/>
       <c r="D40" s="21"/>
       <c r="E40" s="21"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="21" t="s">
         <v>54</v>
       </c>
@@ -2123,7 +2118,7 @@
         <v>5</v>
       </c>
       <c r="F41" s="2">
-        <v>1000</v>
+        <v>1450</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>14</v>
@@ -2132,7 +2127,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="21" t="s">
         <v>54</v>
       </c>
@@ -2152,7 +2147,7 @@
         <v>-54.080300000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="21" t="s">
         <v>54</v>
       </c>
@@ -2172,7 +2167,7 @@
         <v>-88.934600000000003</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="21" t="s">
         <v>54</v>
       </c>
@@ -2192,14 +2187,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="21"/>
       <c r="B45" s="22"/>
       <c r="C45" s="21"/>
       <c r="D45" s="21"/>
       <c r="E45" s="21"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="21" t="s">
         <v>55</v>
       </c>
@@ -2216,7 +2211,7 @@
         <v>5</v>
       </c>
       <c r="F46" s="2">
-        <v>1000</v>
+        <v>1450</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>14</v>
@@ -2225,7 +2220,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="21" t="s">
         <v>55</v>
       </c>
@@ -2245,7 +2240,7 @@
         <v>-54.080300000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="21" t="s">
         <v>55</v>
       </c>
@@ -2265,7 +2260,7 @@
         <v>-88.934600000000003</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="21" t="s">
         <v>55</v>
       </c>
@@ -2285,14 +2280,14 @@
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="21"/>
       <c r="B50" s="22"/>
       <c r="C50" s="21"/>
       <c r="D50" s="21"/>
       <c r="E50" s="21"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="21" t="s">
         <v>56</v>
       </c>
@@ -2309,7 +2304,7 @@
         <v>5</v>
       </c>
       <c r="F51" s="2">
-        <v>1000</v>
+        <v>1450</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>14</v>
@@ -2318,7 +2313,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="21" t="s">
         <v>56</v>
       </c>
@@ -2338,7 +2333,7 @@
         <v>-54.080300000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="21" t="s">
         <v>56</v>
       </c>
@@ -2358,7 +2353,7 @@
         <v>-88.934600000000003</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="21" t="s">
         <v>56</v>
       </c>
@@ -2378,14 +2373,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="21"/>
       <c r="B55" s="22"/>
       <c r="C55" s="21"/>
       <c r="D55" s="21"/>
       <c r="E55" s="21"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="21" t="s">
         <v>57</v>
       </c>
@@ -2402,7 +2397,7 @@
         <v>5</v>
       </c>
       <c r="F56" s="2">
-        <v>1000</v>
+        <v>1450</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>14</v>
@@ -2411,7 +2406,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="21" t="s">
         <v>57</v>
       </c>
@@ -2431,7 +2426,7 @@
         <v>-54.080300000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="21" t="s">
         <v>57</v>
       </c>
@@ -2451,7 +2446,7 @@
         <v>-88.934600000000003</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="21" t="s">
         <v>57</v>
       </c>
@@ -2471,14 +2466,14 @@
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="21"/>
       <c r="B60" s="22"/>
       <c r="C60" s="21"/>
       <c r="D60" s="21"/>
       <c r="E60" s="21"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="21" t="s">
         <v>58</v>
       </c>
@@ -2495,7 +2490,7 @@
         <v>5</v>
       </c>
       <c r="F61" s="2">
-        <v>1000</v>
+        <v>1450</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>14</v>
@@ -2504,7 +2499,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="21" t="s">
         <v>58</v>
       </c>
@@ -2524,7 +2519,7 @@
         <v>-54.080300000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="21" t="s">
         <v>58</v>
       </c>
@@ -2544,7 +2539,7 @@
         <v>-88.934600000000003</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="21" t="s">
         <v>58</v>
       </c>
@@ -2564,14 +2559,14 @@
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="21"/>
       <c r="B65" s="22"/>
       <c r="C65" s="21"/>
       <c r="D65" s="21"/>
       <c r="E65" s="21"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="21" t="s">
         <v>59</v>
       </c>
@@ -2588,7 +2583,7 @@
         <v>5</v>
       </c>
       <c r="F66" s="2">
-        <v>1000</v>
+        <v>1450</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>14</v>
@@ -2597,7 +2592,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="21" t="s">
         <v>59</v>
       </c>
@@ -2617,7 +2612,7 @@
         <v>-54.080300000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="21" t="s">
         <v>59</v>
       </c>
@@ -2637,7 +2632,7 @@
         <v>-88.934600000000003</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="21" t="s">
         <v>59</v>
       </c>
@@ -2657,14 +2652,14 @@
         <v>52</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="21"/>
       <c r="B70" s="22"/>
       <c r="C70" s="21"/>
       <c r="D70" s="21"/>
       <c r="E70" s="21"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="21" t="s">
         <v>60</v>
       </c>
@@ -2681,7 +2676,7 @@
         <v>5</v>
       </c>
       <c r="F71" s="2">
-        <v>1000</v>
+        <v>1450</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>14</v>
@@ -2690,7 +2685,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="21" t="s">
         <v>60</v>
       </c>
@@ -2710,7 +2705,7 @@
         <v>-54.080300000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="21" t="s">
         <v>60</v>
       </c>
@@ -2730,7 +2725,7 @@
         <v>-88.934600000000003</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="21" t="s">
         <v>60</v>
       </c>
@@ -2750,14 +2745,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="21"/>
       <c r="B75" s="22"/>
       <c r="C75" s="21"/>
       <c r="D75" s="21"/>
       <c r="E75" s="21"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="21" t="s">
         <v>61</v>
       </c>
@@ -2774,7 +2769,7 @@
         <v>5</v>
       </c>
       <c r="F76" s="2">
-        <v>1000</v>
+        <v>1450</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>14</v>
@@ -2783,7 +2778,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="21" t="s">
         <v>61</v>
       </c>
@@ -2803,7 +2798,7 @@
         <v>-54.080300000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="21" t="s">
         <v>61</v>
       </c>
@@ -2823,7 +2818,7 @@
         <v>-88.934600000000003</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="21" t="s">
         <v>61</v>
       </c>
@@ -2843,14 +2838,14 @@
         <v>56</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="21"/>
       <c r="B80" s="22"/>
       <c r="C80" s="21"/>
       <c r="D80" s="21"/>
       <c r="E80" s="21"/>
     </row>
-    <row r="81" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="24" t="s">
         <v>62</v>
       </c>
@@ -2867,7 +2862,7 @@
         <v>5</v>
       </c>
       <c r="F81" s="1">
-        <v>3500</v>
+        <v>5700</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>14</v>
@@ -2876,7 +2871,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="21" t="s">
         <v>62</v>
       </c>
@@ -2896,7 +2891,7 @@
         <v>-54.080300000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="21" t="s">
         <v>62</v>
       </c>
@@ -2916,7 +2911,7 @@
         <v>-88.934600000000003</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="21" t="s">
         <v>62</v>
       </c>
@@ -2936,14 +2931,14 @@
         <v>26</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="21"/>
       <c r="B85" s="22"/>
       <c r="C85" s="21"/>
       <c r="D85" s="21"/>
       <c r="E85" s="21"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="21" t="s">
         <v>63</v>
       </c>
@@ -2959,8 +2954,8 @@
       <c r="E86" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F86" s="2">
-        <v>3500</v>
+      <c r="F86" s="1">
+        <v>5700</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>14</v>
@@ -2969,7 +2964,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="21" t="s">
         <v>63</v>
       </c>
@@ -2989,7 +2984,7 @@
         <v>-54.080300000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="21" t="s">
         <v>63</v>
       </c>
@@ -3009,7 +3004,7 @@
         <v>-88.934600000000003</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="21" t="s">
         <v>63</v>
       </c>
@@ -3029,14 +3024,14 @@
         <v>29</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="21"/>
       <c r="B90" s="22"/>
       <c r="C90" s="21"/>
       <c r="D90" s="21"/>
       <c r="E90" s="21"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="21" t="s">
         <v>64</v>
       </c>
@@ -3052,8 +3047,8 @@
       <c r="E91" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F91" s="2">
-        <v>3500</v>
+      <c r="F91" s="1">
+        <v>5700</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>14</v>
@@ -3062,7 +3057,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="21" t="s">
         <v>64</v>
       </c>
@@ -3082,7 +3077,7 @@
         <v>-54.080300000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="21" t="s">
         <v>64</v>
       </c>
@@ -3102,7 +3097,7 @@
         <v>-88.934600000000003</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="21" t="s">
         <v>64</v>
       </c>
@@ -3122,14 +3117,14 @@
         <v>67</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="21"/>
       <c r="B95" s="22"/>
       <c r="C95" s="21"/>
       <c r="D95" s="21"/>
       <c r="E95" s="21"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="21" t="s">
         <v>65</v>
       </c>
@@ -3147,42 +3142,42 @@
         <v>72</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="21"/>
       <c r="B97" s="22"/>
       <c r="C97" s="21"/>
       <c r="D97" s="21"/>
       <c r="E97" s="21"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="21"/>
       <c r="B98" s="21"/>
       <c r="C98" s="21"/>
       <c r="D98" s="21"/>
       <c r="E98" s="21"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="21"/>
       <c r="B99" s="21"/>
       <c r="C99" s="21"/>
       <c r="D99" s="21"/>
       <c r="E99" s="21"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="21"/>
       <c r="B100" s="21"/>
       <c r="C100" s="21"/>
       <c r="D100" s="21"/>
       <c r="E100" s="21"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="21"/>
       <c r="B101" s="21"/>
       <c r="C101" s="21"/>
       <c r="D101" s="21"/>
       <c r="E101" s="21"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="21"/>
       <c r="B102" s="21"/>
       <c r="C102" s="21"/>

--- a/GS03FLMB/Omaha_Cal_Info_GS03FLMB_00001.xlsx
+++ b/GS03FLMB/Omaha_Cal_Info_GS03FLMB_00001.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="12720" windowHeight="12405" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="45" windowWidth="12720" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -168,57 +168,12 @@
     <t>GS03FLMB-00001</t>
   </si>
   <si>
-    <t>GS03FLMB-RIS01-01-FLORTD000</t>
-  </si>
-  <si>
-    <t>GS03FLMB-RIS01-02-PHSENE000</t>
-  </si>
-  <si>
     <t>GS03FLMB-RIS01-03-DOSTAD000</t>
   </si>
   <si>
     <t>Requires TEMPWAT, PRESWAT, and PRACSAL from GS03FLMB-RIS02-03-CTDMOG000</t>
   </si>
   <si>
-    <t>GS03FLMB-RIS02-01-ADCPSL000</t>
-  </si>
-  <si>
-    <t>GS03FLMB-RIS02-03-CTDMOG000</t>
-  </si>
-  <si>
-    <t>GS03FLMB-RIS02-04-CTDMOG000</t>
-  </si>
-  <si>
-    <t>GS03FLMB-RIS02-05-CTDMOG000</t>
-  </si>
-  <si>
-    <t>GS03FLMB-RIS02-06-CTDMOG000</t>
-  </si>
-  <si>
-    <t>GS03FLMB-RIS02-07-CTDMOG000</t>
-  </si>
-  <si>
-    <t>GS03FLMB-RIS02-08-CTDMOG000</t>
-  </si>
-  <si>
-    <t>GS03FLMB-RIS02-09-CTDMOG000</t>
-  </si>
-  <si>
-    <t>GS03FLMB-RIS02-10-CTDMOG000</t>
-  </si>
-  <si>
-    <t>GS03FLMB-RIS02-11-CTDMOG000</t>
-  </si>
-  <si>
-    <t>GS03FLMB-RIS02-12-CTDMOH000</t>
-  </si>
-  <si>
-    <t>GS03FLMB-RIS02-13-CTDMOH000</t>
-  </si>
-  <si>
-    <t>GS03FLMB-RIS02-14-CTDMOH000</t>
-  </si>
-  <si>
     <t>GS03FLMB-FM001-00-ENG000000</t>
   </si>
   <si>
@@ -244,6 +199,51 @@
   </si>
   <si>
     <t>GS03FLMB</t>
+  </si>
+  <si>
+    <t>GS03FLMB-RIS01-05-FLORTD000</t>
+  </si>
+  <si>
+    <t>GS03FLMB-RIM01-02-ADCPSL007</t>
+  </si>
+  <si>
+    <t>GS03FLMB-RIM01-02-CTDMOG087</t>
+  </si>
+  <si>
+    <t>GS03FLMB-RIM01-02-CTDMOG077</t>
+  </si>
+  <si>
+    <t>GS03FLMB-RIM01-02-CTDMOG013</t>
+  </si>
+  <si>
+    <t>GS03FLMB-RIM01-02-CTDMOG012</t>
+  </si>
+  <si>
+    <t>GS03FLMB-RIM01-02-CTDMOG075</t>
+  </si>
+  <si>
+    <t>GS03FLMB-RIM01-02-CTDMOG032</t>
+  </si>
+  <si>
+    <t>GS03FLMB-RIM01-02-CTDMOG079</t>
+  </si>
+  <si>
+    <t>GS03FLMB-RIM01-02-CTDMOG031</t>
+  </si>
+  <si>
+    <t>GS03FLMB-RIM01-02-CTDMOG014</t>
+  </si>
+  <si>
+    <t>GS03FLMB-RIM01-02-CTDMOH093</t>
+  </si>
+  <si>
+    <t>GS03FLMB-RIM01-02-CTDMOH092</t>
+  </si>
+  <si>
+    <t>GS03FLMB-RIM01-02-CTDMOH084</t>
+  </si>
+  <si>
+    <t>GS03FLMB-RIS01-04-PHSENF000</t>
   </si>
 </sst>
 </file>
@@ -1197,7 +1197,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1256,7 +1256,7 @@
     </row>
     <row r="2" spans="1:13" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>47</v>
@@ -1272,16 +1272,16 @@
       </c>
       <c r="F2" s="13"/>
       <c r="G2" s="3" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="I2" s="3">
         <v>4865</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="18">
@@ -1307,15 +1307,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H102"/>
+  <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E81" sqref="E81"/>
+    <sheetView topLeftCell="A31" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
@@ -1349,15 +1349,34 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
+      <c r="A2" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="21">
+        <v>1</v>
+      </c>
+      <c r="D2" s="21">
+        <v>1217</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1.872E-6</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="2">
+        <v>29</v>
+      </c>
     </row>
     <row r="3" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B3" s="22" t="s">
         <v>47</v>
@@ -1369,21 +1388,18 @@
         <v>1217</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2">
-        <v>1.872E-6</v>
+        <v>45</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="2">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B4" s="22" t="s">
         <v>47</v>
@@ -1395,18 +1411,15 @@
         <v>1217</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F4" s="2">
-        <v>45</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>40</v>
+        <v>1.21E-2</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B5" s="22" t="s">
         <v>47</v>
@@ -1418,15 +1431,15 @@
         <v>1217</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" s="2">
-        <v>1.21E-2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B6" s="22" t="s">
         <v>47</v>
@@ -1438,15 +1451,15 @@
         <v>1217</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F6" s="2">
-        <v>51</v>
+        <v>9.0899999999999995E-2</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B7" s="22" t="s">
         <v>47</v>
@@ -1458,15 +1471,15 @@
         <v>1217</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F7" s="2">
-        <v>9.0899999999999995E-2</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B8" s="22" t="s">
         <v>47</v>
@@ -1478,15 +1491,18 @@
         <v>1217</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="F8" s="2">
-        <v>43</v>
+        <v>124</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B9" s="22" t="s">
         <v>47</v>
@@ -1498,10 +1514,10 @@
         <v>1217</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" s="2">
-        <v>124</v>
+        <v>700</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>42</v>
@@ -1509,7 +1525,7 @@
     </row>
     <row r="10" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B10" s="22" t="s">
         <v>47</v>
@@ -1521,10 +1537,10 @@
         <v>1217</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" s="2">
-        <v>700</v>
+        <v>1.0760000000000001</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>42</v>
@@ -1532,7 +1548,7 @@
     </row>
     <row r="11" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B11" s="22" t="s">
         <v>47</v>
@@ -1544,10 +1560,10 @@
         <v>1217</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F11" s="2">
-        <v>1.0760000000000001</v>
+        <v>3.9E-2</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>42</v>
@@ -1555,7 +1571,7 @@
     </row>
     <row r="12" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A12" s="21" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="B12" s="22" t="s">
         <v>47</v>
@@ -1563,29 +1579,45 @@
       <c r="C12" s="21">
         <v>1</v>
       </c>
-      <c r="D12" s="21">
-        <v>1217</v>
+      <c r="D12" s="21" t="s">
+        <v>54</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="F12" s="2">
-        <v>3.9E-2</v>
+        <v>17533</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>42</v>
+        <v>14</v>
+      </c>
+      <c r="H12" s="2">
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
+      <c r="A13" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="21">
+        <v>1</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="2">
+        <v>2229</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="B14" s="22" t="s">
         <v>47</v>
@@ -1594,24 +1626,18 @@
         <v>1</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F14" s="2">
-        <v>17533</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="2">
-        <v>29</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="B15" s="22" t="s">
         <v>47</v>
@@ -1620,18 +1646,18 @@
         <v>1</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F15" s="2">
-        <v>2229</v>
+        <v>38502</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A16" s="21" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="B16" s="22" t="s">
         <v>47</v>
@@ -1640,18 +1666,18 @@
         <v>1</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F16" s="2">
-        <v>101</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="B17" s="22" t="s">
         <v>47</v>
@@ -1660,18 +1686,18 @@
         <v>1</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F17" s="2">
-        <v>38502</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A18" s="21" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="B18" s="22" t="s">
         <v>47</v>
@@ -1680,18 +1706,21 @@
         <v>1</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="F18" s="2">
-        <v>1</v>
+        <v>35</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B19" s="22" t="s">
         <v>47</v>
@@ -1699,49 +1728,68 @@
       <c r="C19" s="21">
         <v>1</v>
       </c>
-      <c r="D19" s="21" t="s">
-        <v>69</v>
+      <c r="D19" s="21">
+        <v>392</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="F19" s="2">
-        <v>0</v>
+        <v>-54.080300000000001</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="2">
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="21">
+        <v>1</v>
+      </c>
+      <c r="D20" s="21">
+        <v>392</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="2">
+        <v>-88.934600000000003</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="21">
-        <v>1</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="F20" s="2">
-        <v>35</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="21" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
-      <c r="A21" s="21"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
+      <c r="A21" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="21">
+        <v>1</v>
+      </c>
+      <c r="D21" s="21">
+        <v>392</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="22" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A22" s="21" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B22" s="22" t="s">
         <v>47</v>
@@ -1750,7 +1798,7 @@
         <v>1</v>
       </c>
       <c r="D22" s="21">
-        <v>392</v>
+        <v>13992</v>
       </c>
       <c r="E22" s="21" t="s">
         <v>6</v>
@@ -1762,12 +1810,12 @@
         <v>14</v>
       </c>
       <c r="H22" s="2">
-        <v>29</v>
+        <v>500</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A23" s="21" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B23" s="22" t="s">
         <v>47</v>
@@ -1776,7 +1824,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="21">
-        <v>392</v>
+        <v>13992</v>
       </c>
       <c r="E23" s="21" t="s">
         <v>7</v>
@@ -1784,13 +1832,10 @@
       <c r="F23" s="2">
         <v>-88.934600000000003</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="24" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A24" s="21" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B24" s="22" t="s">
         <v>47</v>
@@ -1799,25 +1844,38 @@
         <v>1</v>
       </c>
       <c r="D24" s="21">
-        <v>392</v>
+        <v>13992</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>71</v>
+        <v>8</v>
+      </c>
+      <c r="F24" s="2">
+        <v>-54.080300000000001</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
-      <c r="A25" s="21"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
+      <c r="A25" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="21">
+        <v>1</v>
+      </c>
+      <c r="D25" s="21">
+        <v>13992</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="2">
+        <v>-88.934600000000003</v>
+      </c>
     </row>
     <row r="26" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A26" s="21" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B26" s="22" t="s">
         <v>47</v>
@@ -1829,21 +1887,15 @@
         <v>13992</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="F26" s="2">
-        <v>-54.080300000000001</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H26" s="2">
-        <v>500</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A27" s="21" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B27" s="22" t="s">
         <v>47</v>
@@ -1855,15 +1907,15 @@
         <v>13992</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="F27" s="2">
-        <v>-88.934600000000003</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A28" s="21" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B28" s="22" t="s">
         <v>47</v>
@@ -1875,15 +1927,15 @@
         <v>13992</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="F28" s="2">
-        <v>-54.080300000000001</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A29" s="21" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B29" s="22" t="s">
         <v>47</v>
@@ -1895,15 +1947,15 @@
         <v>13992</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="F29" s="2">
-        <v>-88.934600000000003</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A30" s="21" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B30" s="22" t="s">
         <v>47</v>
@@ -1915,15 +1967,15 @@
         <v>13992</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F30" s="2">
-        <v>500000</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A31" s="21" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="B31" s="22" t="s">
         <v>47</v>
@@ -1932,18 +1984,24 @@
         <v>1</v>
       </c>
       <c r="D31" s="21">
-        <v>13992</v>
+        <v>12587</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="F31" s="2">
-        <v>0.45</v>
+        <v>1450</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" s="2">
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A32" s="21" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="B32" s="22" t="s">
         <v>47</v>
@@ -1952,18 +2010,18 @@
         <v>1</v>
       </c>
       <c r="D32" s="21">
-        <v>13992</v>
+        <v>12587</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="F32" s="2">
-        <v>0.45</v>
+        <v>-54.080300000000001</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A33" s="21" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="B33" s="22" t="s">
         <v>47</v>
@@ -1972,18 +2030,18 @@
         <v>1</v>
       </c>
       <c r="D33" s="21">
-        <v>13992</v>
+        <v>12587</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="F33" s="2">
-        <v>0.45</v>
+        <v>-88.934600000000003</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A34" s="21" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="B34" s="22" t="s">
         <v>47</v>
@@ -1992,25 +2050,44 @@
         <v>1</v>
       </c>
       <c r="D34" s="21">
-        <v>13992</v>
+        <v>12587</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F34" s="2">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
-      <c r="A35" s="21"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-    </row>
-    <row r="36" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="21">
+        <v>1</v>
+      </c>
+      <c r="D35" s="21">
+        <v>12377</v>
+      </c>
+      <c r="E35" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="2">
+        <v>1450</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="21" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="B36" s="22" t="s">
         <v>47</v>
@@ -2019,91 +2096,104 @@
         <v>1</v>
       </c>
       <c r="D36" s="21">
-        <v>12587</v>
+        <v>12377</v>
       </c>
       <c r="E36" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36" s="2">
+        <v>-54.080300000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="21">
+        <v>1</v>
+      </c>
+      <c r="D37" s="21">
+        <v>12377</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" s="2">
+        <v>-88.934600000000003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="21">
+        <v>1</v>
+      </c>
+      <c r="D38" s="21">
+        <v>12377</v>
+      </c>
+      <c r="E38" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F38" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="21">
+        <v>1</v>
+      </c>
+      <c r="D39" s="21">
+        <v>12313</v>
+      </c>
+      <c r="E39" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F39" s="2">
         <v>1450</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="G39" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H36" s="2">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
-      <c r="A37" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="B37" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C37" s="21">
-        <v>1</v>
-      </c>
-      <c r="D37" s="21">
-        <v>12587</v>
-      </c>
-      <c r="E37" s="21" t="s">
+      <c r="H39" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="21">
+        <v>1</v>
+      </c>
+      <c r="D40" s="21">
+        <v>12313</v>
+      </c>
+      <c r="E40" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F40" s="2">
         <v>-54.080300000000001</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
-      <c r="A38" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="B38" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C38" s="21">
-        <v>1</v>
-      </c>
-      <c r="D38" s="21">
-        <v>12587</v>
-      </c>
-      <c r="E38" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F38" s="2">
-        <v>-88.934600000000003</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
-      <c r="A39" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="B39" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C39" s="21">
-        <v>1</v>
-      </c>
-      <c r="D39" s="21">
-        <v>12587</v>
-      </c>
-      <c r="E39" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F39" s="2">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
-      <c r="A40" s="21"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="21" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B41" s="22" t="s">
         <v>47</v>
@@ -2112,24 +2202,18 @@
         <v>1</v>
       </c>
       <c r="D41" s="21">
-        <v>12377</v>
+        <v>12313</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F41" s="2">
-        <v>1450</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H41" s="2">
-        <v>39</v>
+        <v>-88.934600000000003</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="21" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B42" s="22" t="s">
         <v>47</v>
@@ -2138,18 +2222,18 @@
         <v>1</v>
       </c>
       <c r="D42" s="21">
-        <v>12377</v>
+        <v>12313</v>
       </c>
       <c r="E42" s="21" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="F42" s="2">
-        <v>-54.080300000000001</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="21" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B43" s="22" t="s">
         <v>47</v>
@@ -2158,18 +2242,24 @@
         <v>1</v>
       </c>
       <c r="D43" s="21">
-        <v>12377</v>
+        <v>12312</v>
       </c>
       <c r="E43" s="21" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F43" s="2">
-        <v>-88.934600000000003</v>
+        <v>1450</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H43" s="2">
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="21" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B44" s="22" t="s">
         <v>47</v>
@@ -2178,25 +2268,38 @@
         <v>1</v>
       </c>
       <c r="D44" s="21">
-        <v>12377</v>
+        <v>12312</v>
       </c>
       <c r="E44" s="21" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="F44" s="2">
-        <v>20</v>
+        <v>-54.080300000000001</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="21"/>
-      <c r="B45" s="22"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
+      <c r="A45" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="21">
+        <v>1</v>
+      </c>
+      <c r="D45" s="21">
+        <v>12312</v>
+      </c>
+      <c r="E45" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" s="2">
+        <v>-88.934600000000003</v>
+      </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="21" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="B46" s="22" t="s">
         <v>47</v>
@@ -2205,24 +2308,18 @@
         <v>1</v>
       </c>
       <c r="D46" s="21">
-        <v>12313</v>
+        <v>12312</v>
       </c>
       <c r="E46" s="21" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="F46" s="2">
-        <v>1450</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H46" s="2">
-        <v>59</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="21" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B47" s="22" t="s">
         <v>47</v>
@@ -2231,18 +2328,24 @@
         <v>1</v>
       </c>
       <c r="D47" s="21">
-        <v>12313</v>
+        <v>12375</v>
       </c>
       <c r="E47" s="21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F47" s="2">
-        <v>-54.080300000000001</v>
+        <v>1450</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H47" s="2">
+        <v>130</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="21" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B48" s="22" t="s">
         <v>47</v>
@@ -2251,18 +2354,18 @@
         <v>1</v>
       </c>
       <c r="D48" s="21">
-        <v>12313</v>
+        <v>12375</v>
       </c>
       <c r="E48" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F48" s="2">
-        <v>-88.934600000000003</v>
+        <v>-54.080300000000001</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="21" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B49" s="22" t="s">
         <v>47</v>
@@ -2271,25 +2374,38 @@
         <v>1</v>
       </c>
       <c r="D49" s="21">
-        <v>12313</v>
+        <v>12375</v>
       </c>
       <c r="E49" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" s="2">
+        <v>-88.934600000000003</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B50" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50" s="21">
+        <v>1</v>
+      </c>
+      <c r="D50" s="21">
+        <v>12375</v>
+      </c>
+      <c r="E50" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="F49" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="21"/>
-      <c r="B50" s="22"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
+      <c r="F50" s="2">
+        <v>54</v>
+      </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="21" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B51" s="22" t="s">
         <v>47</v>
@@ -2298,7 +2414,7 @@
         <v>1</v>
       </c>
       <c r="D51" s="21">
-        <v>12312</v>
+        <v>12332</v>
       </c>
       <c r="E51" s="21" t="s">
         <v>5</v>
@@ -2310,12 +2426,12 @@
         <v>14</v>
       </c>
       <c r="H51" s="2">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="21" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B52" s="22" t="s">
         <v>47</v>
@@ -2324,7 +2440,7 @@
         <v>1</v>
       </c>
       <c r="D52" s="21">
-        <v>12312</v>
+        <v>12332</v>
       </c>
       <c r="E52" s="21" t="s">
         <v>6</v>
@@ -2335,7 +2451,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="21" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B53" s="22" t="s">
         <v>47</v>
@@ -2344,7 +2460,7 @@
         <v>1</v>
       </c>
       <c r="D53" s="21">
-        <v>12312</v>
+        <v>12332</v>
       </c>
       <c r="E53" s="21" t="s">
         <v>7</v>
@@ -2355,7 +2471,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="21" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B54" s="22" t="s">
         <v>47</v>
@@ -2364,25 +2480,44 @@
         <v>1</v>
       </c>
       <c r="D54" s="21">
-        <v>12312</v>
+        <v>12332</v>
       </c>
       <c r="E54" s="21" t="s">
         <v>29</v>
       </c>
       <c r="F54" s="2">
-        <v>15</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="21"/>
-      <c r="B55" s="22"/>
-      <c r="C55" s="21"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="21"/>
+      <c r="A55" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C55" s="21">
+        <v>1</v>
+      </c>
+      <c r="D55" s="21">
+        <v>12379</v>
+      </c>
+      <c r="E55" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F55" s="2">
+        <v>1450</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H55" s="2">
+        <v>250</v>
+      </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="21" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B56" s="22" t="s">
         <v>47</v>
@@ -2391,24 +2526,18 @@
         <v>1</v>
       </c>
       <c r="D56" s="21">
-        <v>12375</v>
+        <v>12379</v>
       </c>
       <c r="E56" s="21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F56" s="2">
-        <v>1450</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H56" s="2">
-        <v>130</v>
+        <v>-54.080300000000001</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="21" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B57" s="22" t="s">
         <v>47</v>
@@ -2417,18 +2546,18 @@
         <v>1</v>
       </c>
       <c r="D57" s="21">
-        <v>12375</v>
+        <v>12379</v>
       </c>
       <c r="E57" s="21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F57" s="2">
-        <v>-54.080300000000001</v>
+        <v>-88.934600000000003</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="21" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B58" s="22" t="s">
         <v>47</v>
@@ -2437,18 +2566,18 @@
         <v>1</v>
       </c>
       <c r="D58" s="21">
-        <v>12375</v>
+        <v>12379</v>
       </c>
       <c r="E58" s="21" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="F58" s="2">
-        <v>-88.934600000000003</v>
+        <v>52</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="21" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="B59" s="22" t="s">
         <v>47</v>
@@ -2457,25 +2586,44 @@
         <v>1</v>
       </c>
       <c r="D59" s="21">
-        <v>12375</v>
+        <v>12331</v>
       </c>
       <c r="E59" s="21" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="F59" s="2">
-        <v>54</v>
+        <v>1450</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H59" s="2">
+        <v>350</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="21"/>
-      <c r="B60" s="22"/>
-      <c r="C60" s="21"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="21"/>
+      <c r="A60" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B60" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C60" s="21">
+        <v>1</v>
+      </c>
+      <c r="D60" s="21">
+        <v>12331</v>
+      </c>
+      <c r="E60" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F60" s="2">
+        <v>-54.080300000000001</v>
+      </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="21" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B61" s="22" t="s">
         <v>47</v>
@@ -2484,24 +2632,18 @@
         <v>1</v>
       </c>
       <c r="D61" s="21">
-        <v>12332</v>
+        <v>12331</v>
       </c>
       <c r="E61" s="21" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F61" s="2">
-        <v>1450</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H61" s="2">
-        <v>180</v>
+        <v>-88.934600000000003</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="21" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B62" s="22" t="s">
         <v>47</v>
@@ -2510,18 +2652,18 @@
         <v>1</v>
       </c>
       <c r="D62" s="21">
-        <v>12332</v>
+        <v>12331</v>
       </c>
       <c r="E62" s="21" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="F62" s="2">
-        <v>-54.080300000000001</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="21" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="B63" s="22" t="s">
         <v>47</v>
@@ -2530,18 +2672,24 @@
         <v>1</v>
       </c>
       <c r="D63" s="21">
-        <v>12332</v>
+        <v>12314</v>
       </c>
       <c r="E63" s="21" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F63" s="2">
-        <v>-88.934600000000003</v>
+        <v>1450</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H63" s="2">
+        <v>501</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="21" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="B64" s="22" t="s">
         <v>47</v>
@@ -2550,25 +2698,38 @@
         <v>1</v>
       </c>
       <c r="D64" s="21">
-        <v>12332</v>
+        <v>12314</v>
       </c>
       <c r="E64" s="21" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="F64" s="2">
-        <v>62</v>
+        <v>-54.080300000000001</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="21"/>
-      <c r="B65" s="22"/>
-      <c r="C65" s="21"/>
-      <c r="D65" s="21"/>
-      <c r="E65" s="21"/>
+      <c r="A65" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B65" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C65" s="21">
+        <v>1</v>
+      </c>
+      <c r="D65" s="21">
+        <v>12314</v>
+      </c>
+      <c r="E65" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F65" s="2">
+        <v>-88.934600000000003</v>
+      </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="21" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B66" s="22" t="s">
         <v>47</v>
@@ -2577,44 +2738,44 @@
         <v>1</v>
       </c>
       <c r="D66" s="21">
-        <v>12379</v>
+        <v>12314</v>
       </c>
       <c r="E66" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F66" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C67" s="24">
+        <v>1</v>
+      </c>
+      <c r="D67" s="24">
+        <v>12393</v>
+      </c>
+      <c r="E67" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="F66" s="2">
-        <v>1450</v>
-      </c>
-      <c r="G66" s="2" t="s">
+      <c r="F67" s="1">
+        <v>5700</v>
+      </c>
+      <c r="G67" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H66" s="2">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="B67" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C67" s="21">
-        <v>1</v>
-      </c>
-      <c r="D67" s="21">
-        <v>12379</v>
-      </c>
-      <c r="E67" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="F67" s="2">
-        <v>-54.080300000000001</v>
+      <c r="H67" s="1">
+        <v>748</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="21" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="B68" s="22" t="s">
         <v>47</v>
@@ -2623,18 +2784,18 @@
         <v>1</v>
       </c>
       <c r="D68" s="21">
-        <v>12379</v>
+        <v>12393</v>
       </c>
       <c r="E68" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F68" s="2">
-        <v>-88.934600000000003</v>
+        <v>-54.080300000000001</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="21" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="B69" s="22" t="s">
         <v>47</v>
@@ -2643,25 +2804,38 @@
         <v>1</v>
       </c>
       <c r="D69" s="21">
-        <v>12379</v>
+        <v>12393</v>
       </c>
       <c r="E69" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F69" s="2">
+        <v>-88.934600000000003</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C70" s="21">
+        <v>1</v>
+      </c>
+      <c r="D70" s="21">
+        <v>12393</v>
+      </c>
+      <c r="E70" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="F69" s="2">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="21"/>
-      <c r="B70" s="22"/>
-      <c r="C70" s="21"/>
-      <c r="D70" s="21"/>
-      <c r="E70" s="21"/>
+      <c r="F70" s="2">
+        <v>26</v>
+      </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="21" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B71" s="22" t="s">
         <v>47</v>
@@ -2670,24 +2844,24 @@
         <v>1</v>
       </c>
       <c r="D71" s="21">
-        <v>12331</v>
+        <v>12392</v>
       </c>
       <c r="E71" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F71" s="2">
-        <v>1450</v>
+      <c r="F71" s="1">
+        <v>5700</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H71" s="2">
-        <v>350</v>
+        <v>999</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="21" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B72" s="22" t="s">
         <v>47</v>
@@ -2696,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="D72" s="21">
-        <v>12331</v>
+        <v>12392</v>
       </c>
       <c r="E72" s="21" t="s">
         <v>6</v>
@@ -2707,7 +2881,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="21" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B73" s="22" t="s">
         <v>47</v>
@@ -2716,7 +2890,7 @@
         <v>1</v>
       </c>
       <c r="D73" s="21">
-        <v>12331</v>
+        <v>12392</v>
       </c>
       <c r="E73" s="21" t="s">
         <v>7</v>
@@ -2727,7 +2901,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="21" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B74" s="22" t="s">
         <v>47</v>
@@ -2736,25 +2910,44 @@
         <v>1</v>
       </c>
       <c r="D74" s="21">
-        <v>12331</v>
+        <v>12392</v>
       </c>
       <c r="E74" s="21" t="s">
         <v>29</v>
       </c>
       <c r="F74" s="2">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="21"/>
-      <c r="B75" s="22"/>
-      <c r="C75" s="21"/>
-      <c r="D75" s="21"/>
-      <c r="E75" s="21"/>
+      <c r="A75" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B75" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C75" s="21">
+        <v>1</v>
+      </c>
+      <c r="D75" s="21">
+        <v>12384</v>
+      </c>
+      <c r="E75" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F75" s="1">
+        <v>5700</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H75" s="2">
+        <v>1501</v>
+      </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="21" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="B76" s="22" t="s">
         <v>47</v>
@@ -2763,24 +2956,18 @@
         <v>1</v>
       </c>
       <c r="D76" s="21">
-        <v>12314</v>
+        <v>12384</v>
       </c>
       <c r="E76" s="21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F76" s="2">
-        <v>1450</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H76" s="2">
-        <v>501</v>
+        <v>-54.080300000000001</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="21" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="B77" s="22" t="s">
         <v>47</v>
@@ -2789,18 +2976,18 @@
         <v>1</v>
       </c>
       <c r="D77" s="21">
-        <v>12314</v>
+        <v>12384</v>
       </c>
       <c r="E77" s="21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F77" s="2">
-        <v>-54.080300000000001</v>
+        <v>-88.934600000000003</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="21" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="B78" s="22" t="s">
         <v>47</v>
@@ -2809,18 +2996,18 @@
         <v>1</v>
       </c>
       <c r="D78" s="21">
-        <v>12314</v>
+        <v>12384</v>
       </c>
       <c r="E78" s="21" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="F78" s="2">
-        <v>-88.934600000000003</v>
+        <v>67</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="21" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="B79" s="22" t="s">
         <v>47</v>
@@ -2828,14 +3015,12 @@
       <c r="C79" s="21">
         <v>1</v>
       </c>
-      <c r="D79" s="21">
-        <v>12314</v>
-      </c>
-      <c r="E79" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F79" s="2">
-        <v>56</v>
+      <c r="D79" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E79" s="21"/>
+      <c r="G79" s="27" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -2845,344 +3030,40 @@
       <c r="D80" s="21"/>
       <c r="E80" s="21"/>
     </row>
-    <row r="81" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="B81" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C81" s="24">
-        <v>1</v>
-      </c>
-      <c r="D81" s="24">
-        <v>12393</v>
-      </c>
-      <c r="E81" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="F81" s="1">
-        <v>5700</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H81" s="1">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="B82" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C82" s="21">
-        <v>1</v>
-      </c>
-      <c r="D82" s="21">
-        <v>12393</v>
-      </c>
-      <c r="E82" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="F82" s="2">
-        <v>-54.080300000000001</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="B83" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C83" s="21">
-        <v>1</v>
-      </c>
-      <c r="D83" s="21">
-        <v>12393</v>
-      </c>
-      <c r="E83" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F83" s="2">
-        <v>-88.934600000000003</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="B84" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C84" s="21">
-        <v>1</v>
-      </c>
-      <c r="D84" s="21">
-        <v>12393</v>
-      </c>
-      <c r="E84" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F84" s="2">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="21"/>
+      <c r="B81" s="21"/>
+      <c r="C81" s="21"/>
+      <c r="D81" s="21"/>
+      <c r="E81" s="21"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="21"/>
+      <c r="B82" s="21"/>
+      <c r="C82" s="21"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="21"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="21"/>
+      <c r="B83" s="21"/>
+      <c r="C83" s="21"/>
+      <c r="D83" s="21"/>
+      <c r="E83" s="21"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="21"/>
+      <c r="B84" s="21"/>
+      <c r="C84" s="21"/>
+      <c r="D84" s="21"/>
+      <c r="E84" s="21"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="21"/>
-      <c r="B85" s="22"/>
+      <c r="B85" s="21"/>
       <c r="C85" s="21"/>
       <c r="D85" s="21"/>
       <c r="E85" s="21"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="B86" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C86" s="21">
-        <v>1</v>
-      </c>
-      <c r="D86" s="21">
-        <v>12392</v>
-      </c>
-      <c r="E86" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="F86" s="1">
-        <v>5700</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H86" s="2">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="B87" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C87" s="21">
-        <v>1</v>
-      </c>
-      <c r="D87" s="21">
-        <v>12392</v>
-      </c>
-      <c r="E87" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="F87" s="2">
-        <v>-54.080300000000001</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="B88" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C88" s="21">
-        <v>1</v>
-      </c>
-      <c r="D88" s="21">
-        <v>12392</v>
-      </c>
-      <c r="E88" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F88" s="2">
-        <v>-88.934600000000003</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="B89" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C89" s="21">
-        <v>1</v>
-      </c>
-      <c r="D89" s="21">
-        <v>12392</v>
-      </c>
-      <c r="E89" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F89" s="2">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="21"/>
-      <c r="B90" s="22"/>
-      <c r="C90" s="21"/>
-      <c r="D90" s="21"/>
-      <c r="E90" s="21"/>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="B91" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C91" s="21">
-        <v>1</v>
-      </c>
-      <c r="D91" s="21">
-        <v>12384</v>
-      </c>
-      <c r="E91" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="F91" s="1">
-        <v>5700</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H91" s="2">
-        <v>1501</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="B92" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C92" s="21">
-        <v>1</v>
-      </c>
-      <c r="D92" s="21">
-        <v>12384</v>
-      </c>
-      <c r="E92" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="F92" s="2">
-        <v>-54.080300000000001</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="B93" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C93" s="21">
-        <v>1</v>
-      </c>
-      <c r="D93" s="21">
-        <v>12384</v>
-      </c>
-      <c r="E93" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F93" s="2">
-        <v>-88.934600000000003</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="B94" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C94" s="21">
-        <v>1</v>
-      </c>
-      <c r="D94" s="21">
-        <v>12384</v>
-      </c>
-      <c r="E94" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F94" s="2">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="21"/>
-      <c r="B95" s="22"/>
-      <c r="C95" s="21"/>
-      <c r="D95" s="21"/>
-      <c r="E95" s="21"/>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="B96" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C96" s="21">
-        <v>1</v>
-      </c>
-      <c r="D96" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="E96" s="21"/>
-      <c r="G96" s="27" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="21"/>
-      <c r="B97" s="22"/>
-      <c r="C97" s="21"/>
-      <c r="D97" s="21"/>
-      <c r="E97" s="21"/>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="21"/>
-      <c r="B98" s="21"/>
-      <c r="C98" s="21"/>
-      <c r="D98" s="21"/>
-      <c r="E98" s="21"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="21"/>
-      <c r="B99" s="21"/>
-      <c r="C99" s="21"/>
-      <c r="D99" s="21"/>
-      <c r="E99" s="21"/>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="21"/>
-      <c r="B100" s="21"/>
-      <c r="C100" s="21"/>
-      <c r="D100" s="21"/>
-      <c r="E100" s="21"/>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="21"/>
-      <c r="B101" s="21"/>
-      <c r="C101" s="21"/>
-      <c r="D101" s="21"/>
-      <c r="E101" s="21"/>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="21"/>
-      <c r="B102" s="21"/>
-      <c r="C102" s="21"/>
-      <c r="D102" s="21"/>
-      <c r="E102" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GS03FLMB/Omaha_Cal_Info_GS03FLMB_00001.xlsx
+++ b/GS03FLMB/Omaha_Cal_Info_GS03FLMB_00001.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="45" windowWidth="12720" windowHeight="11700"/>
+    <workbookView xWindow="1500" yWindow="1400" windowWidth="26020" windowHeight="15400"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -17,12 +17,17 @@
     <definedName name="_FilterDatabase_0">[1]Moorings!#REF!</definedName>
     <definedName name="_FilterDatabase_0_0_0">[1]Moorings!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="86">
   <si>
     <t>Ref Des</t>
   </si>
@@ -177,9 +182,6 @@
     <t>GS03FLMB-FM001-00-ENG000000</t>
   </si>
   <si>
-    <t>AT26-29</t>
-  </si>
-  <si>
     <t>54° 04.8180' S</t>
   </si>
   <si>
@@ -244,6 +246,65 @@
   </si>
   <si>
     <t>GS03FLMB-RIS01-04-PHSENF000</t>
+  </si>
+  <si>
+    <r>
+      <t>AT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>26-29</t>
+    </r>
+  </si>
+  <si>
+    <t>37-12375</t>
+  </si>
+  <si>
+    <t>37-12332</t>
+  </si>
+  <si>
+    <t>37-12379</t>
+  </si>
+  <si>
+    <t>37-12331</t>
+  </si>
+  <si>
+    <t>37-12314</t>
+  </si>
+  <si>
+    <t>37-12393</t>
+  </si>
+  <si>
+    <t>37-12392</t>
+  </si>
+  <si>
+    <t>37-12384</t>
+  </si>
+  <si>
+    <t>37-12587</t>
+  </si>
+  <si>
+    <t>37-12377</t>
+  </si>
+  <si>
+    <t>37-12313</t>
+  </si>
+  <si>
+    <t>37-12312</t>
   </si>
 </sst>
 </file>
@@ -251,12 +312,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="167" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -419,6 +480,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -493,16 +576,16 @@
     </border>
     <border>
       <left style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,7 +603,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="132">
+  <cellStyleXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -584,14 +667,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -653,8 +736,26 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -680,22 +781,19 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="16" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="16" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -714,9 +812,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -731,7 +826,7 @@
     <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -743,8 +838,29 @@
     <xf numFmtId="0" fontId="15" fillId="6" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="132">
+  <cellStyles count="150">
     <cellStyle name="Comma 2" xfId="63"/>
     <cellStyle name="Comma 2 2" xfId="64"/>
     <cellStyle name="Comma 2 2 2" xfId="65"/>
@@ -755,6 +871,24 @@
     <cellStyle name="Currency 2 3" xfId="70"/>
     <cellStyle name="Excel Built-in Normal" xfId="6"/>
     <cellStyle name="Excel Built-in Normal 2" xfId="71"/>
+    <cellStyle name="Followed Hyperlink" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="143" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="145" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="147" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="149" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="132" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="134" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="136" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="138" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="140" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="142" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="144" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="146" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="148" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink 2" xfId="9"/>
     <cellStyle name="Hyperlink 2 2" xfId="72"/>
     <cellStyle name="Hyperlink 2 3" xfId="73"/>
@@ -892,7 +1026,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Read Me"/>
@@ -1197,45 +1331,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="17" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.5703125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="4" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" style="4" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="4"/>
+    <col min="1" max="1" width="22.33203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.5" style="4" customWidth="1"/>
+    <col min="12" max="12" width="13.5" style="4" customWidth="1"/>
+    <col min="13" max="13" width="12.5" style="4" customWidth="1"/>
+    <col min="14" max="16384" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="8" customFormat="1" ht="28">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>31</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>33</v>
       </c>
       <c r="G1" s="6" t="s">
@@ -1254,9 +1388,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
-        <v>58</v>
+    <row r="2" spans="1:13" s="14" customFormat="1">
+      <c r="A2" s="27" t="s">
+        <v>57</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>47</v>
@@ -1264,44 +1398,49 @@
       <c r="C2" s="3">
         <v>1</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="12">
         <v>42058</v>
       </c>
-      <c r="E2" s="19">
+      <c r="E2" s="18">
         <v>0.84652777777777777</v>
       </c>
-      <c r="F2" s="13"/>
+      <c r="F2" s="12"/>
       <c r="G2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I2" s="3">
-        <v>4865</v>
+      <c r="I2" s="34">
+        <v>4932</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="K2" s="3"/>
-      <c r="L2" s="18">
+      <c r="L2" s="17">
         <f>((LEFT(G2,(FIND("°",G2,1)-1)))+(MID(G2,(FIND("°",G2,1)+1),(FIND("'",G2,1))-(FIND("°",G2,1)+1))/60))*(IF(RIGHT(G2,1)="N",1,-1))</f>
         <v>-54.080300000000001</v>
       </c>
-      <c r="M2" s="18">
+      <c r="M2" s="17">
         <f>((LEFT(H2,(FIND("°",H2,1)-1)))+(MID(H2,(FIND("°",H2,1)+1),(FIND("'",H2,1))-(FIND("°",H2,1)+1))/60))*(IF(RIGHT(H2,1)="E",1,-1))</f>
         <v>-88.934600000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="15" customFormat="1" ht="13.9" x14ac:dyDescent="0.3">
-      <c r="D3" s="25"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="25"/>
-    </row>
-    <row r="4" spans="1:13" customFormat="1" ht="14.45" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:13" s="14" customFormat="1">
+      <c r="D3" s="23"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="23"/>
+    </row>
+    <row r="4" spans="1:13" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1309,59 +1448,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="27" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="2"/>
+    <col min="6" max="6" width="27.1640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="11" customFormat="1" ht="13.9" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:8" s="29" customFormat="1" ht="28">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="20" t="s">
+      <c r="B1" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="29" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="21">
-        <v>1</v>
-      </c>
-      <c r="D2" s="21">
+    <row r="2" spans="1:8">
+      <c r="A2" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="19">
+        <v>1</v>
+      </c>
+      <c r="D2" s="19">
         <v>1217</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="2">
@@ -1374,20 +1513,20 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="21">
-        <v>1</v>
-      </c>
-      <c r="D3" s="21">
+    <row r="3" spans="1:8">
+      <c r="A3" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="19">
+        <v>1</v>
+      </c>
+      <c r="D3" s="19">
         <v>1217</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="19" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="2">
@@ -1397,100 +1536,100 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="21">
-        <v>1</v>
-      </c>
-      <c r="D4" s="21">
+    <row r="4" spans="1:8">
+      <c r="A4" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="19">
+        <v>1</v>
+      </c>
+      <c r="D4" s="19">
         <v>1217</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="19" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="2">
         <v>1.21E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="21">
-        <v>1</v>
-      </c>
-      <c r="D5" s="21">
+    <row r="5" spans="1:8">
+      <c r="A5" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="19">
+        <v>1</v>
+      </c>
+      <c r="D5" s="19">
         <v>1217</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="2">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="21">
-        <v>1</v>
-      </c>
-      <c r="D6" s="21">
+    <row r="6" spans="1:8">
+      <c r="A6" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="19">
+        <v>1</v>
+      </c>
+      <c r="D6" s="19">
         <v>1217</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="19" t="s">
         <v>16</v>
       </c>
       <c r="F6" s="2">
         <v>9.0899999999999995E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="21">
-        <v>1</v>
-      </c>
-      <c r="D7" s="21">
+    <row r="7" spans="1:8">
+      <c r="A7" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="19">
+        <v>1</v>
+      </c>
+      <c r="D7" s="19">
         <v>1217</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="19" t="s">
         <v>17</v>
       </c>
       <c r="F7" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
-      <c r="A8" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="21">
-        <v>1</v>
-      </c>
-      <c r="D8" s="21">
+    <row r="8" spans="1:8">
+      <c r="A8" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="19">
+        <v>1</v>
+      </c>
+      <c r="D8" s="19">
         <v>1217</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="19" t="s">
         <v>43</v>
       </c>
       <c r="F8" s="2">
@@ -1500,20 +1639,20 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
-      <c r="A9" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="21">
-        <v>1</v>
-      </c>
-      <c r="D9" s="21">
+    <row r="9" spans="1:8">
+      <c r="A9" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="19">
+        <v>1</v>
+      </c>
+      <c r="D9" s="19">
         <v>1217</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="19" t="s">
         <v>44</v>
       </c>
       <c r="F9" s="2">
@@ -1523,20 +1662,20 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
-      <c r="A10" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="21">
-        <v>1</v>
-      </c>
-      <c r="D10" s="21">
+    <row r="10" spans="1:8">
+      <c r="A10" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="19">
+        <v>1</v>
+      </c>
+      <c r="D10" s="19">
         <v>1217</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="19" t="s">
         <v>45</v>
       </c>
       <c r="F10" s="2">
@@ -1546,20 +1685,20 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
-      <c r="A11" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="21">
-        <v>1</v>
-      </c>
-      <c r="D11" s="21">
+    <row r="11" spans="1:8">
+      <c r="A11" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="19">
+        <v>1</v>
+      </c>
+      <c r="D11" s="19">
         <v>1217</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="19" t="s">
         <v>46</v>
       </c>
       <c r="F11" s="2">
@@ -1569,20 +1708,20 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
-      <c r="A12" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="21">
-        <v>1</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="21" t="s">
+    <row r="12" spans="1:8">
+      <c r="A12" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="19">
+        <v>1</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="19" t="s">
         <v>18</v>
       </c>
       <c r="F12" s="2">
@@ -1595,120 +1734,120 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
-      <c r="A13" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="21">
-        <v>1</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="21" t="s">
+    <row r="13" spans="1:8">
+      <c r="A13" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="19">
+        <v>1</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="19" t="s">
         <v>19</v>
       </c>
       <c r="F13" s="2">
         <v>2229</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
-      <c r="A14" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="21">
-        <v>1</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="21" t="s">
+    <row r="14" spans="1:8">
+      <c r="A14" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="19">
+        <v>1</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F14" s="2">
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
-      <c r="A15" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="21">
-        <v>1</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="21" t="s">
+    <row r="15" spans="1:8">
+      <c r="A15" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="19">
+        <v>1</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F15" s="2">
         <v>38502</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
-      <c r="A16" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="21">
-        <v>1</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="21" t="s">
+    <row r="16" spans="1:8">
+      <c r="A16" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="19">
+        <v>1</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="19" t="s">
         <v>22</v>
       </c>
       <c r="F16" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
-      <c r="A17" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="21">
-        <v>1</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="21" t="s">
+    <row r="17" spans="1:8">
+      <c r="A17" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="19">
+        <v>1</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F17" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
-      <c r="A18" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="B18" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="21">
-        <v>1</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="21" t="s">
+    <row r="18" spans="1:8">
+      <c r="A18" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="19">
+        <v>1</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="19" t="s">
         <v>39</v>
       </c>
       <c r="F18" s="2">
@@ -1718,20 +1857,20 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
-      <c r="A19" s="21" t="s">
+    <row r="19" spans="1:8">
+      <c r="A19" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="21">
-        <v>1</v>
-      </c>
-      <c r="D19" s="21">
+      <c r="B19" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="19">
+        <v>1</v>
+      </c>
+      <c r="D19" s="19">
         <v>392</v>
       </c>
-      <c r="E19" s="21" t="s">
+      <c r="E19" s="19" t="s">
         <v>6</v>
       </c>
       <c r="F19" s="2">
@@ -1744,20 +1883,20 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
-      <c r="A20" s="21" t="s">
+    <row r="20" spans="1:8">
+      <c r="A20" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="21">
-        <v>1</v>
-      </c>
-      <c r="D20" s="21">
+      <c r="B20" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="19">
+        <v>1</v>
+      </c>
+      <c r="D20" s="19">
         <v>392</v>
       </c>
-      <c r="E20" s="21" t="s">
+      <c r="E20" s="19" t="s">
         <v>7</v>
       </c>
       <c r="F20" s="2">
@@ -1767,40 +1906,40 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
-      <c r="A21" s="21" t="s">
+    <row r="21" spans="1:8">
+      <c r="A21" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="21">
-        <v>1</v>
-      </c>
-      <c r="D21" s="21">
+      <c r="B21" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="19">
+        <v>1</v>
+      </c>
+      <c r="D21" s="19">
         <v>392</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="E21" s="19" t="s">
         <v>15</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
-      <c r="A22" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="21">
-        <v>1</v>
-      </c>
-      <c r="D22" s="21">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="19">
+        <v>1</v>
+      </c>
+      <c r="D22" s="19">
         <v>13992</v>
       </c>
-      <c r="E22" s="21" t="s">
+      <c r="E22" s="19" t="s">
         <v>6</v>
       </c>
       <c r="F22" s="2">
@@ -1813,180 +1952,180 @@
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
-      <c r="A23" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="21">
-        <v>1</v>
-      </c>
-      <c r="D23" s="21">
+    <row r="23" spans="1:8">
+      <c r="A23" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="19">
+        <v>1</v>
+      </c>
+      <c r="D23" s="19">
         <v>13992</v>
       </c>
-      <c r="E23" s="21" t="s">
+      <c r="E23" s="19" t="s">
         <v>7</v>
       </c>
       <c r="F23" s="2">
         <v>-88.934600000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
-      <c r="A24" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="21">
-        <v>1</v>
-      </c>
-      <c r="D24" s="21">
+    <row r="24" spans="1:8">
+      <c r="A24" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="19">
+        <v>1</v>
+      </c>
+      <c r="D24" s="19">
         <v>13992</v>
       </c>
-      <c r="E24" s="21" t="s">
+      <c r="E24" s="19" t="s">
         <v>8</v>
       </c>
       <c r="F24" s="2">
         <v>-54.080300000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
-      <c r="A25" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="B25" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="21">
-        <v>1</v>
-      </c>
-      <c r="D25" s="21">
+    <row r="25" spans="1:8">
+      <c r="A25" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="19">
+        <v>1</v>
+      </c>
+      <c r="D25" s="19">
         <v>13992</v>
       </c>
-      <c r="E25" s="21" t="s">
+      <c r="E25" s="19" t="s">
         <v>9</v>
       </c>
       <c r="F25" s="2">
         <v>-88.934600000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
-      <c r="A26" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="21">
-        <v>1</v>
-      </c>
-      <c r="D26" s="21">
+    <row r="26" spans="1:8">
+      <c r="A26" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="19">
+        <v>1</v>
+      </c>
+      <c r="D26" s="19">
         <v>13992</v>
       </c>
-      <c r="E26" s="21" t="s">
+      <c r="E26" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F26" s="2">
         <v>500000</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
-      <c r="A27" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="B27" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" s="21">
-        <v>1</v>
-      </c>
-      <c r="D27" s="21">
+    <row r="27" spans="1:8">
+      <c r="A27" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="19">
+        <v>1</v>
+      </c>
+      <c r="D27" s="19">
         <v>13992</v>
       </c>
-      <c r="E27" s="21" t="s">
+      <c r="E27" s="19" t="s">
         <v>25</v>
       </c>
       <c r="F27" s="2">
         <v>0.45</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
-      <c r="A28" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="B28" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="21">
-        <v>1</v>
-      </c>
-      <c r="D28" s="21">
+    <row r="28" spans="1:8">
+      <c r="A28" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="19">
+        <v>1</v>
+      </c>
+      <c r="D28" s="19">
         <v>13992</v>
       </c>
-      <c r="E28" s="21" t="s">
+      <c r="E28" s="19" t="s">
         <v>26</v>
       </c>
       <c r="F28" s="2">
         <v>0.45</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
-      <c r="A29" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" s="21">
-        <v>1</v>
-      </c>
-      <c r="D29" s="21">
+    <row r="29" spans="1:8">
+      <c r="A29" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="19">
+        <v>1</v>
+      </c>
+      <c r="D29" s="19">
         <v>13992</v>
       </c>
-      <c r="E29" s="21" t="s">
+      <c r="E29" s="19" t="s">
         <v>27</v>
       </c>
       <c r="F29" s="2">
         <v>0.45</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
-      <c r="A30" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="B30" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="21">
-        <v>1</v>
-      </c>
-      <c r="D30" s="21">
+    <row r="30" spans="1:8">
+      <c r="A30" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="19">
+        <v>1</v>
+      </c>
+      <c r="D30" s="19">
         <v>13992</v>
       </c>
-      <c r="E30" s="21" t="s">
+      <c r="E30" s="19" t="s">
         <v>28</v>
       </c>
       <c r="F30" s="2">
         <v>0.45</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
-      <c r="A31" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="B31" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" s="21">
-        <v>1</v>
-      </c>
-      <c r="D31" s="21">
-        <v>12587</v>
-      </c>
-      <c r="E31" s="21" t="s">
+    <row r="31" spans="1:8">
+      <c r="A31" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="19">
+        <v>1</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="E31" s="19" t="s">
         <v>5</v>
       </c>
       <c r="F31" s="2">
@@ -1999,80 +2138,80 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
-      <c r="A32" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="B32" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" s="21">
-        <v>1</v>
-      </c>
-      <c r="D32" s="21">
-        <v>12587</v>
-      </c>
-      <c r="E32" s="21" t="s">
+    <row r="32" spans="1:8">
+      <c r="A32" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="19">
+        <v>1</v>
+      </c>
+      <c r="D32" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="E32" s="19" t="s">
         <v>6</v>
       </c>
       <c r="F32" s="2">
         <v>-54.080300000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
-      <c r="A33" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="B33" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C33" s="21">
-        <v>1</v>
-      </c>
-      <c r="D33" s="21">
-        <v>12587</v>
-      </c>
-      <c r="E33" s="21" t="s">
+    <row r="33" spans="1:8">
+      <c r="A33" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="19">
+        <v>1</v>
+      </c>
+      <c r="D33" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="E33" s="19" t="s">
         <v>7</v>
       </c>
       <c r="F33" s="2">
         <v>-88.934600000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
-      <c r="A34" s="21" t="s">
+    <row r="34" spans="1:8">
+      <c r="A34" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="19">
+        <v>1</v>
+      </c>
+      <c r="D34" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" s="32">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="B34" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C34" s="21">
-        <v>1</v>
-      </c>
-      <c r="D34" s="21">
-        <v>12587</v>
-      </c>
-      <c r="E34" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F34" s="2">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="B35" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C35" s="21">
-        <v>1</v>
-      </c>
-      <c r="D35" s="21">
-        <v>12377</v>
-      </c>
-      <c r="E35" s="21" t="s">
+      <c r="B35" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="19">
+        <v>1</v>
+      </c>
+      <c r="D35" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="E35" s="19" t="s">
         <v>5</v>
       </c>
       <c r="F35" s="2">
@@ -2085,80 +2224,80 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="B36" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C36" s="21">
-        <v>1</v>
-      </c>
-      <c r="D36" s="21">
-        <v>12377</v>
-      </c>
-      <c r="E36" s="21" t="s">
+    <row r="36" spans="1:8">
+      <c r="A36" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="19">
+        <v>1</v>
+      </c>
+      <c r="D36" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="E36" s="19" t="s">
         <v>6</v>
       </c>
       <c r="F36" s="2">
         <v>-54.080300000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="B37" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C37" s="21">
-        <v>1</v>
-      </c>
-      <c r="D37" s="21">
-        <v>12377</v>
-      </c>
-      <c r="E37" s="21" t="s">
+    <row r="37" spans="1:8">
+      <c r="A37" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="19">
+        <v>1</v>
+      </c>
+      <c r="D37" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="E37" s="19" t="s">
         <v>7</v>
       </c>
       <c r="F37" s="2">
         <v>-88.934600000000003</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="21" t="s">
+    <row r="38" spans="1:8">
+      <c r="A38" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="19">
+        <v>1</v>
+      </c>
+      <c r="D38" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F38" s="32">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="B38" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C38" s="21">
-        <v>1</v>
-      </c>
-      <c r="D38" s="21">
-        <v>12377</v>
-      </c>
-      <c r="E38" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F38" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="B39" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C39" s="21">
-        <v>1</v>
-      </c>
-      <c r="D39" s="21">
-        <v>12313</v>
-      </c>
-      <c r="E39" s="21" t="s">
+      <c r="B39" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="19">
+        <v>1</v>
+      </c>
+      <c r="D39" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="E39" s="19" t="s">
         <v>5</v>
       </c>
       <c r="F39" s="2">
@@ -2171,80 +2310,80 @@
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="B40" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C40" s="21">
-        <v>1</v>
-      </c>
-      <c r="D40" s="21">
-        <v>12313</v>
-      </c>
-      <c r="E40" s="21" t="s">
+    <row r="40" spans="1:8">
+      <c r="A40" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="19">
+        <v>1</v>
+      </c>
+      <c r="D40" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="E40" s="19" t="s">
         <v>6</v>
       </c>
       <c r="F40" s="2">
         <v>-54.080300000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="B41" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C41" s="21">
-        <v>1</v>
-      </c>
-      <c r="D41" s="21">
-        <v>12313</v>
-      </c>
-      <c r="E41" s="21" t="s">
+    <row r="41" spans="1:8">
+      <c r="A41" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="19">
+        <v>1</v>
+      </c>
+      <c r="D41" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="E41" s="19" t="s">
         <v>7</v>
       </c>
       <c r="F41" s="2">
         <v>-88.934600000000003</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="21" t="s">
+    <row r="42" spans="1:8">
+      <c r="A42" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="19">
+        <v>1</v>
+      </c>
+      <c r="D42" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="E42" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F42" s="32">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="B42" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C42" s="21">
-        <v>1</v>
-      </c>
-      <c r="D42" s="21">
-        <v>12313</v>
-      </c>
-      <c r="E42" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F42" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="B43" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C43" s="21">
-        <v>1</v>
-      </c>
-      <c r="D43" s="21">
-        <v>12312</v>
-      </c>
-      <c r="E43" s="21" t="s">
+      <c r="B43" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="19">
+        <v>1</v>
+      </c>
+      <c r="D43" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="E43" s="19" t="s">
         <v>5</v>
       </c>
       <c r="F43" s="2">
@@ -2257,80 +2396,80 @@
         <v>90</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="B44" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C44" s="21">
-        <v>1</v>
-      </c>
-      <c r="D44" s="21">
-        <v>12312</v>
-      </c>
-      <c r="E44" s="21" t="s">
+    <row r="44" spans="1:8">
+      <c r="A44" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="19">
+        <v>1</v>
+      </c>
+      <c r="D44" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="E44" s="19" t="s">
         <v>6</v>
       </c>
       <c r="F44" s="2">
         <v>-54.080300000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="B45" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C45" s="21">
-        <v>1</v>
-      </c>
-      <c r="D45" s="21">
-        <v>12312</v>
-      </c>
-      <c r="E45" s="21" t="s">
+    <row r="45" spans="1:8">
+      <c r="A45" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="19">
+        <v>1</v>
+      </c>
+      <c r="D45" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="E45" s="19" t="s">
         <v>7</v>
       </c>
       <c r="F45" s="2">
         <v>-88.934600000000003</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="21" t="s">
+    <row r="46" spans="1:8">
+      <c r="A46" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" s="19">
+        <v>1</v>
+      </c>
+      <c r="D46" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="E46" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F46" s="32">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B46" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C46" s="21">
-        <v>1</v>
-      </c>
-      <c r="D46" s="21">
-        <v>12312</v>
-      </c>
-      <c r="E46" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F46" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="B47" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C47" s="21">
-        <v>1</v>
-      </c>
-      <c r="D47" s="21">
-        <v>12375</v>
-      </c>
-      <c r="E47" s="21" t="s">
+      <c r="B47" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" s="19">
+        <v>1</v>
+      </c>
+      <c r="D47" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="E47" s="19" t="s">
         <v>5</v>
       </c>
       <c r="F47" s="2">
@@ -2343,80 +2482,80 @@
         <v>130</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="B48" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C48" s="21">
-        <v>1</v>
-      </c>
-      <c r="D48" s="21">
-        <v>12375</v>
-      </c>
-      <c r="E48" s="21" t="s">
+    <row r="48" spans="1:8">
+      <c r="A48" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48" s="19">
+        <v>1</v>
+      </c>
+      <c r="D48" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="E48" s="19" t="s">
         <v>6</v>
       </c>
       <c r="F48" s="2">
         <v>-54.080300000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="B49" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C49" s="21">
-        <v>1</v>
-      </c>
-      <c r="D49" s="21">
-        <v>12375</v>
-      </c>
-      <c r="E49" s="21" t="s">
+    <row r="49" spans="1:8">
+      <c r="A49" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49" s="19">
+        <v>1</v>
+      </c>
+      <c r="D49" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="E49" s="19" t="s">
         <v>7</v>
       </c>
       <c r="F49" s="2">
         <v>-88.934600000000003</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="21" t="s">
+    <row r="50" spans="1:8">
+      <c r="A50" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50" s="19">
+        <v>1</v>
+      </c>
+      <c r="D50" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="E50" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F50" s="32">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="B50" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C50" s="21">
-        <v>1</v>
-      </c>
-      <c r="D50" s="21">
-        <v>12375</v>
-      </c>
-      <c r="E50" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F50" s="2">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="B51" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C51" s="21">
-        <v>1</v>
-      </c>
-      <c r="D51" s="21">
-        <v>12332</v>
-      </c>
-      <c r="E51" s="21" t="s">
+      <c r="B51" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C51" s="19">
+        <v>1</v>
+      </c>
+      <c r="D51" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="E51" s="19" t="s">
         <v>5</v>
       </c>
       <c r="F51" s="2">
@@ -2429,80 +2568,80 @@
         <v>180</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="B52" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C52" s="21">
-        <v>1</v>
-      </c>
-      <c r="D52" s="21">
-        <v>12332</v>
-      </c>
-      <c r="E52" s="21" t="s">
+    <row r="52" spans="1:8">
+      <c r="A52" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C52" s="19">
+        <v>1</v>
+      </c>
+      <c r="D52" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="E52" s="19" t="s">
         <v>6</v>
       </c>
       <c r="F52" s="2">
         <v>-54.080300000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="B53" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C53" s="21">
-        <v>1</v>
-      </c>
-      <c r="D53" s="21">
-        <v>12332</v>
-      </c>
-      <c r="E53" s="21" t="s">
+    <row r="53" spans="1:8">
+      <c r="A53" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C53" s="19">
+        <v>1</v>
+      </c>
+      <c r="D53" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="E53" s="19" t="s">
         <v>7</v>
       </c>
       <c r="F53" s="2">
         <v>-88.934600000000003</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="21" t="s">
+    <row r="54" spans="1:8">
+      <c r="A54" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C54" s="19">
+        <v>1</v>
+      </c>
+      <c r="D54" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="E54" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F54" s="32">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B54" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C54" s="21">
-        <v>1</v>
-      </c>
-      <c r="D54" s="21">
-        <v>12332</v>
-      </c>
-      <c r="E54" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F54" s="2">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="B55" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C55" s="21">
-        <v>1</v>
-      </c>
-      <c r="D55" s="21">
-        <v>12379</v>
-      </c>
-      <c r="E55" s="21" t="s">
+      <c r="B55" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C55" s="19">
+        <v>1</v>
+      </c>
+      <c r="D55" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="E55" s="19" t="s">
         <v>5</v>
       </c>
       <c r="F55" s="2">
@@ -2515,80 +2654,80 @@
         <v>250</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="B56" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C56" s="21">
-        <v>1</v>
-      </c>
-      <c r="D56" s="21">
-        <v>12379</v>
-      </c>
-      <c r="E56" s="21" t="s">
+    <row r="56" spans="1:8">
+      <c r="A56" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B56" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C56" s="19">
+        <v>1</v>
+      </c>
+      <c r="D56" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="E56" s="19" t="s">
         <v>6</v>
       </c>
       <c r="F56" s="2">
         <v>-54.080300000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="B57" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C57" s="21">
-        <v>1</v>
-      </c>
-      <c r="D57" s="21">
-        <v>12379</v>
-      </c>
-      <c r="E57" s="21" t="s">
+    <row r="57" spans="1:8">
+      <c r="A57" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B57" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C57" s="19">
+        <v>1</v>
+      </c>
+      <c r="D57" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="E57" s="19" t="s">
         <v>7</v>
       </c>
       <c r="F57" s="2">
         <v>-88.934600000000003</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="21" t="s">
+    <row r="58" spans="1:8">
+      <c r="A58" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B58" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C58" s="19">
+        <v>1</v>
+      </c>
+      <c r="D58" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="E58" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F58" s="32">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="B58" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C58" s="21">
-        <v>1</v>
-      </c>
-      <c r="D58" s="21">
-        <v>12379</v>
-      </c>
-      <c r="E58" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F58" s="2">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="B59" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C59" s="21">
-        <v>1</v>
-      </c>
-      <c r="D59" s="21">
-        <v>12331</v>
-      </c>
-      <c r="E59" s="21" t="s">
+      <c r="B59" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C59" s="19">
+        <v>1</v>
+      </c>
+      <c r="D59" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="E59" s="19" t="s">
         <v>5</v>
       </c>
       <c r="F59" s="2">
@@ -2601,80 +2740,80 @@
         <v>350</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="B60" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C60" s="21">
-        <v>1</v>
-      </c>
-      <c r="D60" s="21">
-        <v>12331</v>
-      </c>
-      <c r="E60" s="21" t="s">
+    <row r="60" spans="1:8">
+      <c r="A60" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B60" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C60" s="19">
+        <v>1</v>
+      </c>
+      <c r="D60" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="E60" s="19" t="s">
         <v>6</v>
       </c>
       <c r="F60" s="2">
         <v>-54.080300000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="B61" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C61" s="21">
-        <v>1</v>
-      </c>
-      <c r="D61" s="21">
-        <v>12331</v>
-      </c>
-      <c r="E61" s="21" t="s">
+    <row r="61" spans="1:8">
+      <c r="A61" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B61" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C61" s="19">
+        <v>1</v>
+      </c>
+      <c r="D61" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="E61" s="19" t="s">
         <v>7</v>
       </c>
       <c r="F61" s="2">
         <v>-88.934600000000003</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="21" t="s">
+    <row r="62" spans="1:8">
+      <c r="A62" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C62" s="19">
+        <v>1</v>
+      </c>
+      <c r="D62" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="E62" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F62" s="32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B62" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C62" s="21">
-        <v>1</v>
-      </c>
-      <c r="D62" s="21">
-        <v>12331</v>
-      </c>
-      <c r="E62" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F62" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="B63" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C63" s="21">
-        <v>1</v>
-      </c>
-      <c r="D63" s="21">
-        <v>12314</v>
-      </c>
-      <c r="E63" s="21" t="s">
+      <c r="B63" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C63" s="19">
+        <v>1</v>
+      </c>
+      <c r="D63" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="E63" s="19" t="s">
         <v>5</v>
       </c>
       <c r="F63" s="2">
@@ -2687,84 +2826,84 @@
         <v>501</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="B64" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C64" s="21">
-        <v>1</v>
-      </c>
-      <c r="D64" s="21">
-        <v>12314</v>
-      </c>
-      <c r="E64" s="21" t="s">
+    <row r="64" spans="1:8">
+      <c r="A64" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C64" s="19">
+        <v>1</v>
+      </c>
+      <c r="D64" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="E64" s="19" t="s">
         <v>6</v>
       </c>
       <c r="F64" s="2">
         <v>-54.080300000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="B65" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C65" s="21">
-        <v>1</v>
-      </c>
-      <c r="D65" s="21">
-        <v>12314</v>
-      </c>
-      <c r="E65" s="21" t="s">
+    <row r="65" spans="1:8">
+      <c r="A65" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C65" s="19">
+        <v>1</v>
+      </c>
+      <c r="D65" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="E65" s="19" t="s">
         <v>7</v>
       </c>
       <c r="F65" s="2">
         <v>-88.934600000000003</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="21" t="s">
+    <row r="66" spans="1:8">
+      <c r="A66" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B66" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C66" s="19">
+        <v>1</v>
+      </c>
+      <c r="D66" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="E66" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F66" s="32">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" s="1" customFormat="1">
+      <c r="A67" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B66" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C66" s="21">
-        <v>1</v>
-      </c>
-      <c r="D66" s="21">
-        <v>12314</v>
-      </c>
-      <c r="E66" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F66" s="2">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="B67" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C67" s="24">
-        <v>1</v>
-      </c>
-      <c r="D67" s="24">
-        <v>12393</v>
-      </c>
-      <c r="E67" s="24" t="s">
+      <c r="B67" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C67" s="22">
+        <v>1</v>
+      </c>
+      <c r="D67" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="E67" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="F67" s="1">
-        <v>5700</v>
+      <c r="F67" s="33">
+        <v>5076</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>14</v>
@@ -2773,84 +2912,84 @@
         <v>748</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="B68" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C68" s="21">
-        <v>1</v>
-      </c>
-      <c r="D68" s="21">
-        <v>12393</v>
-      </c>
-      <c r="E68" s="21" t="s">
+    <row r="68" spans="1:8">
+      <c r="A68" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C68" s="19">
+        <v>1</v>
+      </c>
+      <c r="D68" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="E68" s="19" t="s">
         <v>6</v>
       </c>
       <c r="F68" s="2">
         <v>-54.080300000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="B69" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C69" s="21">
-        <v>1</v>
-      </c>
-      <c r="D69" s="21">
-        <v>12393</v>
-      </c>
-      <c r="E69" s="21" t="s">
+    <row r="69" spans="1:8">
+      <c r="A69" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C69" s="19">
+        <v>1</v>
+      </c>
+      <c r="D69" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="E69" s="19" t="s">
         <v>7</v>
       </c>
       <c r="F69" s="2">
         <v>-88.934600000000003</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="21" t="s">
+    <row r="70" spans="1:8">
+      <c r="A70" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C70" s="19">
+        <v>1</v>
+      </c>
+      <c r="D70" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="E70" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F70" s="32">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="B70" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C70" s="21">
-        <v>1</v>
-      </c>
-      <c r="D70" s="21">
-        <v>12393</v>
-      </c>
-      <c r="E70" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F70" s="2">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="B71" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C71" s="21">
-        <v>1</v>
-      </c>
-      <c r="D71" s="21">
-        <v>12392</v>
-      </c>
-      <c r="E71" s="21" t="s">
+      <c r="B71" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C71" s="19">
+        <v>1</v>
+      </c>
+      <c r="D71" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="E71" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="F71" s="1">
-        <v>5700</v>
+      <c r="F71" s="33">
+        <v>5076</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>14</v>
@@ -2859,84 +2998,84 @@
         <v>999</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="B72" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C72" s="21">
-        <v>1</v>
-      </c>
-      <c r="D72" s="21">
-        <v>12392</v>
-      </c>
-      <c r="E72" s="21" t="s">
+    <row r="72" spans="1:8">
+      <c r="A72" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B72" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C72" s="19">
+        <v>1</v>
+      </c>
+      <c r="D72" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="E72" s="19" t="s">
         <v>6</v>
       </c>
       <c r="F72" s="2">
         <v>-54.080300000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="B73" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C73" s="21">
-        <v>1</v>
-      </c>
-      <c r="D73" s="21">
-        <v>12392</v>
-      </c>
-      <c r="E73" s="21" t="s">
+    <row r="73" spans="1:8">
+      <c r="A73" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B73" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C73" s="19">
+        <v>1</v>
+      </c>
+      <c r="D73" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="E73" s="19" t="s">
         <v>7</v>
       </c>
       <c r="F73" s="2">
         <v>-88.934600000000003</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="21" t="s">
+    <row r="74" spans="1:8">
+      <c r="A74" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B74" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C74" s="19">
+        <v>1</v>
+      </c>
+      <c r="D74" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="E74" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F74" s="32">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B74" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C74" s="21">
-        <v>1</v>
-      </c>
-      <c r="D74" s="21">
-        <v>12392</v>
-      </c>
-      <c r="E74" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F74" s="2">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="B75" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C75" s="21">
-        <v>1</v>
-      </c>
-      <c r="D75" s="21">
-        <v>12384</v>
-      </c>
-      <c r="E75" s="21" t="s">
+      <c r="B75" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C75" s="19">
+        <v>1</v>
+      </c>
+      <c r="D75" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="E75" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="F75" s="1">
-        <v>5700</v>
+      <c r="F75" s="33">
+        <v>5076</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>14</v>
@@ -2945,128 +3084,133 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="B76" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C76" s="21">
-        <v>1</v>
-      </c>
-      <c r="D76" s="21">
-        <v>12384</v>
-      </c>
-      <c r="E76" s="21" t="s">
+    <row r="76" spans="1:8">
+      <c r="A76" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B76" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C76" s="19">
+        <v>1</v>
+      </c>
+      <c r="D76" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="E76" s="19" t="s">
         <v>6</v>
       </c>
       <c r="F76" s="2">
         <v>-54.080300000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="B77" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C77" s="21">
-        <v>1</v>
-      </c>
-      <c r="D77" s="21">
-        <v>12384</v>
-      </c>
-      <c r="E77" s="21" t="s">
+    <row r="77" spans="1:8">
+      <c r="A77" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B77" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C77" s="19">
+        <v>1</v>
+      </c>
+      <c r="D77" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="E77" s="19" t="s">
         <v>7</v>
       </c>
       <c r="F77" s="2">
         <v>-88.934600000000003</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="B78" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C78" s="21">
-        <v>1</v>
-      </c>
-      <c r="D78" s="21">
-        <v>12384</v>
-      </c>
-      <c r="E78" s="21" t="s">
+    <row r="78" spans="1:8">
+      <c r="A78" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B78" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C78" s="19">
+        <v>1</v>
+      </c>
+      <c r="D78" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="E78" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="F78" s="2">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="21" t="s">
+      <c r="F78" s="32">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B79" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C79" s="21">
-        <v>1</v>
-      </c>
-      <c r="D79" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E79" s="21"/>
-      <c r="G79" s="27" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="21"/>
-      <c r="B80" s="22"/>
-      <c r="C80" s="21"/>
-      <c r="D80" s="21"/>
-      <c r="E80" s="21"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="21"/>
-      <c r="B81" s="21"/>
-      <c r="C81" s="21"/>
-      <c r="D81" s="21"/>
-      <c r="E81" s="21"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="21"/>
-      <c r="B82" s="21"/>
-      <c r="C82" s="21"/>
-      <c r="D82" s="21"/>
-      <c r="E82" s="21"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="21"/>
-      <c r="B83" s="21"/>
-      <c r="C83" s="21"/>
-      <c r="D83" s="21"/>
-      <c r="E83" s="21"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="21"/>
-      <c r="B84" s="21"/>
-      <c r="C84" s="21"/>
-      <c r="D84" s="21"/>
-      <c r="E84" s="21"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="21"/>
-      <c r="B85" s="21"/>
-      <c r="C85" s="21"/>
-      <c r="D85" s="21"/>
-      <c r="E85" s="21"/>
+      <c r="B79" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C79" s="19">
+        <v>1</v>
+      </c>
+      <c r="D79" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="E79" s="19"/>
+      <c r="G79" s="25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="19"/>
+      <c r="B80" s="20"/>
+      <c r="C80" s="19"/>
+      <c r="D80" s="19"/>
+      <c r="E80" s="19"/>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="19"/>
+      <c r="B81" s="19"/>
+      <c r="C81" s="19"/>
+      <c r="D81" s="19"/>
+      <c r="E81" s="19"/>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="19"/>
+      <c r="B82" s="19"/>
+      <c r="C82" s="19"/>
+      <c r="D82" s="19"/>
+      <c r="E82" s="19"/>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="19"/>
+      <c r="B83" s="19"/>
+      <c r="C83" s="19"/>
+      <c r="D83" s="19"/>
+      <c r="E83" s="19"/>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="19"/>
+      <c r="B84" s="19"/>
+      <c r="C84" s="19"/>
+      <c r="D84" s="19"/>
+      <c r="E84" s="19"/>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="19"/>
+      <c r="B85" s="19"/>
+      <c r="C85" s="19"/>
+      <c r="D85" s="19"/>
+      <c r="E85" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>